--- a/CSV Tests/Expected_vs_Detected_v1_EXCEL.xlsx
+++ b/CSV Tests/Expected_vs_Detected_v1_EXCEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Water_Trust_v1\CSV Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E1E9C6-18BB-4E45-8A9E-FEF3CB725802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36206CC2-A948-4330-BE79-931DE7ADEDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{24A3ABE9-6E4C-47AC-86E2-F48A3AFBCA0B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{24A3ABE9-6E4C-47AC-86E2-F48A3AFBCA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Node Name</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Node Number</t>
-  </si>
-  <si>
-    <t>Diameter</t>
   </si>
   <si>
     <t>DATA</t>
@@ -124,6 +121,18 @@
   </si>
   <si>
     <t>Device_1_3D</t>
+  </si>
+  <si>
+    <t>Number of Devices</t>
+  </si>
+  <si>
+    <t>Node Names</t>
+  </si>
+  <si>
+    <t>Name of Node 1</t>
+  </si>
+  <si>
+    <t>Name of Node 2</t>
   </si>
 </sst>
 </file>
@@ -475,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15507383-6451-46A8-8C82-0D6AF6E61987}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -509,42 +518,42 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -585,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -623,10 +632,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -664,7 +673,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0.5</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -695,6 +704,8409 @@
       </c>
       <c r="M5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <f ca="1">RANDBETWEEN(70,80)</f>
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <f ca="1">RANDBETWEEN(65,70)</f>
+        <v>68</v>
+      </c>
+      <c r="F6">
+        <f ca="1">RANDBETWEEN(110,120)</f>
+        <v>112</v>
+      </c>
+      <c r="G6">
+        <f ca="1">RANDBETWEEN(105,110)</f>
+        <v>107</v>
+      </c>
+      <c r="H6">
+        <f ca="1">RANDBETWEEN(45,47)</f>
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <f ca="1">RANDBETWEEN(44,45)</f>
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:M21" ca="1" si="0">RANDBETWEEN(70,80)</f>
+        <v>71</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:M21" ca="1" si="1">RANDBETWEEN(65,70)</f>
+        <v>68</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:M21" ca="1" si="2">RANDBETWEEN(70,80)</f>
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M69" ca="1" si="3">RANDBETWEEN(65,70)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D7">
+        <f t="shared" ref="D7:D70" ca="1" si="4">RANDBETWEEN(70,80)</f>
+        <v>78</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E70" ca="1" si="5">RANDBETWEEN(65,70)</f>
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F70" ca="1" si="6">RANDBETWEEN(110,120)</f>
+        <v>114</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G70" ca="1" si="7">RANDBETWEEN(105,110)</f>
+        <v>109</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H70" ca="1" si="8">RANDBETWEEN(45,47)</f>
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I70" ca="1" si="9">RANDBETWEEN(44,45)</f>
+        <v>44</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D8">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D10">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D11">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D13">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D14">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D15">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D16">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J85" ca="1" si="10">RANDBETWEEN(70,80)</f>
+        <v>77</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K85" ca="1" si="11">RANDBETWEEN(65,70)</f>
+        <v>67</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L85" ca="1" si="12">RANDBETWEEN(70,80)</f>
+        <v>72</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D23">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D24">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D26">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D27">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D28">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D37">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D38">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ca="1" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D39">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D40">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ca="1" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D41">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D42">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D43">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D44">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D45">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D46">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ca="1" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D47">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ca="1" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D48">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D49">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ca="1" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D50">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ca="1" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ca="1" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ca="1" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ca="1" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ca="1" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L56">
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ca="1" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ca="1" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="M58">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ca="1" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ca="1" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ca="1" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ca="1" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ca="1" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L60">
+        <f t="shared" ca="1" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ca="1" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="L61">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D62">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ca="1" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L62">
+        <f t="shared" ca="1" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ca="1" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="L63">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="L64">
+        <f t="shared" ca="1" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ca="1" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ca="1" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ca="1" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ca="1" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D67">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ca="1" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ca="1" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D68">
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ca="1" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D69">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="L69">
+        <f t="shared" ca="1" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D70">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ca="1" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ca="1" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="L70">
+        <f t="shared" ca="1" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70:M133" ca="1" si="13">RANDBETWEEN(65,70)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D71">
+        <f t="shared" ref="D71:D134" ca="1" si="14">RANDBETWEEN(70,80)</f>
+        <v>76</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:E134" ca="1" si="15">RANDBETWEEN(65,70)</f>
+        <v>65</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71:F134" ca="1" si="16">RANDBETWEEN(110,120)</f>
+        <v>119</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71:G134" ca="1" si="17">RANDBETWEEN(105,110)</f>
+        <v>107</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ref="H71:H134" ca="1" si="18">RANDBETWEEN(45,47)</f>
+        <v>46</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ref="I71:I134" ca="1" si="19">RANDBETWEEN(44,45)</f>
+        <v>44</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ca="1" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L71">
+        <f t="shared" ca="1" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D72">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ca="1" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L72">
+        <f t="shared" ca="1" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D73">
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="16"/>
+        <v>115</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ca="1" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="L73">
+        <f t="shared" ca="1" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D74">
+        <f t="shared" ca="1" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="16"/>
+        <v>116</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ca="1" si="17"/>
+        <v>106</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ca="1" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ca="1" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D75">
+        <f t="shared" ca="1" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="16"/>
+        <v>114</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ca="1" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="L75">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ca="1" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D76">
+        <f t="shared" ca="1" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="16"/>
+        <v>113</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ca="1" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L76">
+        <f t="shared" ca="1" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D77">
+        <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ca="1" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ca="1" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L77">
+        <f t="shared" ca="1" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D78">
+        <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ca="1" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ca="1" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D79">
+        <f t="shared" ca="1" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="16"/>
+        <v>117</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ca="1" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="L79">
+        <f t="shared" ca="1" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="M79">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D80">
+        <f t="shared" ca="1" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L80">
+        <f t="shared" ca="1" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="M80">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D81">
+        <f t="shared" ca="1" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J81">
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="K81">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L81">
+        <f t="shared" ca="1" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="M81">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D82">
+        <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="16"/>
+        <v>117</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ca="1" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="L82">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ca="1" si="13"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D83">
+        <f t="shared" ca="1" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ca="1" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="L83">
+        <f t="shared" ca="1" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="M83">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D84">
+        <f t="shared" ca="1" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="K84">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L84">
+        <f t="shared" ca="1" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="M84">
+        <f t="shared" ca="1" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D85">
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ca="1" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="L85">
+        <f t="shared" ca="1" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D86">
+        <f t="shared" ca="1" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ref="J86:J149" ca="1" si="20">RANDBETWEEN(70,80)</f>
+        <v>73</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86:K149" ca="1" si="21">RANDBETWEEN(65,70)</f>
+        <v>70</v>
+      </c>
+      <c r="L86">
+        <f t="shared" ref="L86:L149" ca="1" si="22">RANDBETWEEN(70,80)</f>
+        <v>72</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D87">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J87">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L87">
+        <f t="shared" ca="1" si="22"/>
+        <v>80</v>
+      </c>
+      <c r="M87">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D88">
+        <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ca="1" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="L88">
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="M88">
+        <f t="shared" ca="1" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D89">
+        <f t="shared" ca="1" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ca="1" si="20"/>
+        <v>75</v>
+      </c>
+      <c r="K89">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L89">
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="M89">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D90">
+        <f t="shared" ca="1" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="16"/>
+        <v>116</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ca="1" si="17"/>
+        <v>106</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="M90">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D91">
+        <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="16"/>
+        <v>115</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ca="1" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J91">
+        <f t="shared" ca="1" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ca="1" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="L91">
+        <f t="shared" ca="1" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="M91">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D92">
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ca="1" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="L92">
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="M92">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D93">
+        <f t="shared" ca="1" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ca="1" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L93">
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="M93">
+        <f t="shared" ca="1" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D94">
+        <f t="shared" ca="1" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ca="1" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="M94">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D95">
+        <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ca="1" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ca="1" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L95">
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="M95">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D96">
+        <f t="shared" ca="1" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="16"/>
+        <v>114</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J96">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L96">
+        <f t="shared" ca="1" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="M96">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D97">
+        <f t="shared" ca="1" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L97">
+        <f t="shared" ca="1" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="M97">
+        <f t="shared" ca="1" si="13"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D98">
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="16"/>
+        <v>117</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ca="1" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="K98">
+        <f t="shared" ca="1" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="L98">
+        <f t="shared" ca="1" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="M98">
+        <f t="shared" ca="1" si="13"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D99">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ca="1" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J99">
+        <f t="shared" ca="1" si="20"/>
+        <v>75</v>
+      </c>
+      <c r="K99">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L99">
+        <f t="shared" ca="1" si="22"/>
+        <v>79</v>
+      </c>
+      <c r="M99">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D100">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="16"/>
+        <v>117</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ca="1" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J100">
+        <f t="shared" ca="1" si="20"/>
+        <v>79</v>
+      </c>
+      <c r="K100">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L100">
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="M100">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D101">
+        <f t="shared" ca="1" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ca="1" si="20"/>
+        <v>79</v>
+      </c>
+      <c r="K101">
+        <f t="shared" ca="1" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L101">
+        <f t="shared" ca="1" si="22"/>
+        <v>72</v>
+      </c>
+      <c r="M101">
+        <f t="shared" ca="1" si="13"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D102">
+        <f t="shared" ca="1" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ca="1" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I102">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J102">
+        <f t="shared" ca="1" si="20"/>
+        <v>75</v>
+      </c>
+      <c r="K102">
+        <f t="shared" ca="1" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="L102">
+        <f t="shared" ca="1" si="22"/>
+        <v>76</v>
+      </c>
+      <c r="M102">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D103">
+        <f t="shared" ca="1" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ca="1" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="16"/>
+        <v>116</v>
+      </c>
+      <c r="G103">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J103">
+        <f t="shared" ca="1" si="20"/>
+        <v>78</v>
+      </c>
+      <c r="K103">
+        <f t="shared" ca="1" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="L103">
+        <f t="shared" ca="1" si="22"/>
+        <v>79</v>
+      </c>
+      <c r="M103">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D104">
+        <f t="shared" ca="1" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ca="1" si="16"/>
+        <v>113</v>
+      </c>
+      <c r="G104">
+        <f t="shared" ca="1" si="17"/>
+        <v>106</v>
+      </c>
+      <c r="H104">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J104">
+        <f t="shared" ca="1" si="20"/>
+        <v>73</v>
+      </c>
+      <c r="K104">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L104">
+        <f t="shared" ca="1" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="M104">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D105">
+        <f t="shared" ca="1" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ca="1" si="16"/>
+        <v>114</v>
+      </c>
+      <c r="G105">
+        <f t="shared" ca="1" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="H105">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I105">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J105">
+        <f t="shared" ca="1" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="K105">
+        <f t="shared" ca="1" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="L105">
+        <f t="shared" ca="1" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="M105">
+        <f t="shared" ca="1" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D106">
+        <f t="shared" ca="1" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ca="1" si="16"/>
+        <v>119</v>
+      </c>
+      <c r="G106">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H106">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I106">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J106">
+        <f t="shared" ca="1" si="20"/>
+        <v>78</v>
+      </c>
+      <c r="K106">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L106">
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="M106">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D107">
+        <f t="shared" ca="1" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ca="1" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ca="1" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="G107">
+        <f t="shared" ca="1" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="H107">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I107">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J107">
+        <f t="shared" ca="1" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="K107">
+        <f t="shared" ca="1" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="L107">
+        <f t="shared" ca="1" si="22"/>
+        <v>76</v>
+      </c>
+      <c r="M107">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D108">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ca="1" si="16"/>
+        <v>116</v>
+      </c>
+      <c r="G108">
+        <f t="shared" ca="1" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="H108">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J108">
+        <f t="shared" ca="1" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="K108">
+        <f t="shared" ca="1" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L108">
+        <f t="shared" ca="1" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="M108">
+        <f t="shared" ca="1" si="13"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D109">
+        <f t="shared" ca="1" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ca="1" si="16"/>
+        <v>117</v>
+      </c>
+      <c r="G109">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H109">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I109">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J109">
+        <f t="shared" ca="1" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="K109">
+        <f t="shared" ca="1" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L109">
+        <f t="shared" ca="1" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="M109">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D110">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ca="1" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ca="1" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="G110">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H110">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I110">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J110">
+        <f t="shared" ca="1" si="20"/>
+        <v>78</v>
+      </c>
+      <c r="K110">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L110">
+        <f t="shared" ca="1" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="M110">
+        <f t="shared" ca="1" si="13"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D111">
+        <f t="shared" ca="1" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ca="1" si="16"/>
+        <v>119</v>
+      </c>
+      <c r="G111">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H111">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I111">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J111">
+        <f t="shared" ca="1" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="K111">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L111">
+        <f t="shared" ca="1" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="M111">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D112">
+        <f t="shared" ca="1" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ca="1" si="16"/>
+        <v>117</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ca="1" si="17"/>
+        <v>106</v>
+      </c>
+      <c r="H112">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J112">
+        <f t="shared" ca="1" si="20"/>
+        <v>75</v>
+      </c>
+      <c r="K112">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L112">
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="M112">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D113">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ca="1" si="16"/>
+        <v>116</v>
+      </c>
+      <c r="G113">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H113">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I113">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J113">
+        <f t="shared" ca="1" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="K113">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L113">
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="M113">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D114">
+        <f t="shared" ca="1" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ca="1" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="G114">
+        <f t="shared" ca="1" si="17"/>
+        <v>106</v>
+      </c>
+      <c r="H114">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I114">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J114">
+        <f t="shared" ca="1" si="20"/>
+        <v>78</v>
+      </c>
+      <c r="K114">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L114">
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="M114">
+        <f t="shared" ca="1" si="13"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D115">
+        <f t="shared" ca="1" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ca="1" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="F115">
+        <f t="shared" ca="1" si="16"/>
+        <v>113</v>
+      </c>
+      <c r="G115">
+        <f t="shared" ca="1" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="H115">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I115">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J115">
+        <f t="shared" ca="1" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="K115">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L115">
+        <f t="shared" ca="1" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="M115">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D116">
+        <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ca="1" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="G116">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H116">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I116">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J116">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="K116">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L116">
+        <f t="shared" ca="1" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="M116">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D117">
+        <f t="shared" ca="1" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ca="1" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ca="1" si="16"/>
+        <v>117</v>
+      </c>
+      <c r="G117">
+        <f t="shared" ca="1" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="H117">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I117">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J117">
+        <f t="shared" ca="1" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="K117">
+        <f t="shared" ca="1" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="L117">
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="M117">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D118">
+        <f t="shared" ca="1" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ca="1" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ca="1" si="16"/>
+        <v>119</v>
+      </c>
+      <c r="G118">
+        <f t="shared" ca="1" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="H118">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J118">
+        <f t="shared" ca="1" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="K118">
+        <f t="shared" ca="1" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="L118">
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="M118">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D119">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ca="1" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ca="1" si="16"/>
+        <v>113</v>
+      </c>
+      <c r="G119">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H119">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I119">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J119">
+        <f t="shared" ca="1" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="K119">
+        <f t="shared" ca="1" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="L119">
+        <f t="shared" ca="1" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="M119">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D120">
+        <f t="shared" ca="1" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ca="1" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ca="1" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="G120">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H120">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I120">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J120">
+        <f t="shared" ca="1" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="K120">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L120">
+        <f t="shared" ca="1" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="M120">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D121">
+        <f t="shared" ca="1" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ca="1" si="16"/>
+        <v>114</v>
+      </c>
+      <c r="G121">
+        <f t="shared" ca="1" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="H121">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I121">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J121">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="K121">
+        <f t="shared" ca="1" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="L121">
+        <f t="shared" ca="1" si="22"/>
+        <v>74</v>
+      </c>
+      <c r="M121">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D122">
+        <f t="shared" ca="1" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="E122">
+        <f t="shared" ca="1" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="F122">
+        <f t="shared" ca="1" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="G122">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H122">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I122">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J122">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="K122">
+        <f t="shared" ca="1" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="L122">
+        <f t="shared" ca="1" si="22"/>
+        <v>72</v>
+      </c>
+      <c r="M122">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D123">
+        <f t="shared" ca="1" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ca="1" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="F123">
+        <f t="shared" ca="1" si="16"/>
+        <v>114</v>
+      </c>
+      <c r="G123">
+        <f t="shared" ca="1" si="17"/>
+        <v>106</v>
+      </c>
+      <c r="H123">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I123">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J123">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="K123">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L123">
+        <f t="shared" ca="1" si="22"/>
+        <v>80</v>
+      </c>
+      <c r="M123">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D124">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F124">
+        <f t="shared" ca="1" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="G124">
+        <f t="shared" ca="1" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="H124">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I124">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J124">
+        <f t="shared" ca="1" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="K124">
+        <f t="shared" ca="1" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="L124">
+        <f t="shared" ca="1" si="22"/>
+        <v>74</v>
+      </c>
+      <c r="M124">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D125">
+        <f t="shared" ca="1" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F125">
+        <f t="shared" ca="1" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="G125">
+        <f t="shared" ca="1" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="H125">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I125">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J125">
+        <f t="shared" ca="1" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="K125">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L125">
+        <f t="shared" ca="1" si="22"/>
+        <v>80</v>
+      </c>
+      <c r="M125">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D126">
+        <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="E126">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F126">
+        <f t="shared" ca="1" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="G126">
+        <f t="shared" ca="1" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="H126">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I126">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J126">
+        <f t="shared" ca="1" si="20"/>
+        <v>79</v>
+      </c>
+      <c r="K126">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L126">
+        <f t="shared" ca="1" si="22"/>
+        <v>76</v>
+      </c>
+      <c r="M126">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D127">
+        <f t="shared" ca="1" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ca="1" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="F127">
+        <f t="shared" ca="1" si="16"/>
+        <v>114</v>
+      </c>
+      <c r="G127">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="H127">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I127">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J127">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="K127">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L127">
+        <f t="shared" ca="1" si="22"/>
+        <v>74</v>
+      </c>
+      <c r="M127">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D128">
+        <f t="shared" ca="1" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F128">
+        <f t="shared" ca="1" si="16"/>
+        <v>114</v>
+      </c>
+      <c r="G128">
+        <f t="shared" ca="1" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="H128">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I128">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J128">
+        <f t="shared" ca="1" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="K128">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L128">
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="M128">
+        <f t="shared" ca="1" si="13"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D129">
+        <f t="shared" ca="1" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="E129">
+        <f t="shared" ca="1" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F129">
+        <f t="shared" ca="1" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="G129">
+        <f t="shared" ca="1" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="H129">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I129">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J129">
+        <f t="shared" ca="1" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="K129">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L129">
+        <f t="shared" ca="1" si="22"/>
+        <v>76</v>
+      </c>
+      <c r="M129">
+        <f t="shared" ca="1" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D130">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ca="1" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="F130">
+        <f t="shared" ca="1" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="G130">
+        <f t="shared" ca="1" si="17"/>
+        <v>106</v>
+      </c>
+      <c r="H130">
+        <f t="shared" ca="1" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="I130">
+        <f t="shared" ca="1" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="J130">
+        <f t="shared" ca="1" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="K130">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L130">
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
+      </c>
+      <c r="M130">
+        <f t="shared" ca="1" si="13"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D131">
+        <f t="shared" ca="1" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ca="1" si="15"/>
+        <v>66</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ca="1" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ca="1" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L131">
+        <f t="shared" ca="1" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="M131">
+        <f t="shared" ca="1" si="13"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D132">
+        <f t="shared" ca="1" si="14"/>
+        <v>78</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ca="1" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ca="1" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="H132">
+        <f t="shared" ca="1" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="K132">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L132">
+        <f t="shared" ca="1" si="22"/>
+        <v>79</v>
+      </c>
+      <c r="M132">
+        <f t="shared" ca="1" si="13"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D133">
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ca="1" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="F133">
+        <f t="shared" ca="1" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="G133">
+        <f t="shared" ca="1" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="H133">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I133">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J133">
+        <f t="shared" ca="1" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="K133">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L133">
+        <f t="shared" ca="1" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="M133">
+        <f t="shared" ca="1" si="13"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D134">
+        <f t="shared" ca="1" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ca="1" si="15"/>
+        <v>67</v>
+      </c>
+      <c r="F134">
+        <f t="shared" ca="1" si="16"/>
+        <v>113</v>
+      </c>
+      <c r="G134">
+        <f t="shared" ca="1" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="H134">
+        <f t="shared" ca="1" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="I134">
+        <f t="shared" ca="1" si="19"/>
+        <v>44</v>
+      </c>
+      <c r="J134">
+        <f t="shared" ca="1" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="K134">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L134">
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="M134">
+        <f t="shared" ref="M134:M197" ca="1" si="23">RANDBETWEEN(65,70)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D135">
+        <f t="shared" ref="D135:D198" ca="1" si="24">RANDBETWEEN(70,80)</f>
+        <v>73</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ref="E135:E198" ca="1" si="25">RANDBETWEEN(65,70)</f>
+        <v>66</v>
+      </c>
+      <c r="F135">
+        <f t="shared" ref="F135:F198" ca="1" si="26">RANDBETWEEN(110,120)</f>
+        <v>115</v>
+      </c>
+      <c r="G135">
+        <f t="shared" ref="G135:G198" ca="1" si="27">RANDBETWEEN(105,110)</f>
+        <v>107</v>
+      </c>
+      <c r="H135">
+        <f t="shared" ref="H135:H198" ca="1" si="28">RANDBETWEEN(45,47)</f>
+        <v>47</v>
+      </c>
+      <c r="I135">
+        <f t="shared" ref="I135:I198" ca="1" si="29">RANDBETWEEN(44,45)</f>
+        <v>45</v>
+      </c>
+      <c r="J135">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="K135">
+        <f t="shared" ca="1" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="L135">
+        <f t="shared" ca="1" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="M135">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D136">
+        <f t="shared" ca="1" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F136">
+        <f t="shared" ca="1" si="26"/>
+        <v>116</v>
+      </c>
+      <c r="G136">
+        <f t="shared" ca="1" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="H136">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I136">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J136">
+        <f t="shared" ca="1" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="K136">
+        <f t="shared" ca="1" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L136">
+        <f t="shared" ca="1" si="22"/>
+        <v>72</v>
+      </c>
+      <c r="M136">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D137">
+        <f t="shared" ca="1" si="24"/>
+        <v>71</v>
+      </c>
+      <c r="E137">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F137">
+        <f t="shared" ca="1" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="G137">
+        <f t="shared" ca="1" si="27"/>
+        <v>105</v>
+      </c>
+      <c r="H137">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I137">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J137">
+        <f t="shared" ca="1" si="20"/>
+        <v>78</v>
+      </c>
+      <c r="K137">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L137">
+        <f t="shared" ca="1" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="M137">
+        <f t="shared" ca="1" si="23"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D138">
+        <f t="shared" ca="1" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="E138">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F138">
+        <f t="shared" ca="1" si="26"/>
+        <v>120</v>
+      </c>
+      <c r="G138">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H138">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I138">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J138">
+        <f t="shared" ca="1" si="20"/>
+        <v>72</v>
+      </c>
+      <c r="K138">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L138">
+        <f t="shared" ca="1" si="22"/>
+        <v>75</v>
+      </c>
+      <c r="M138">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D139">
+        <f t="shared" ca="1" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ca="1" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="F139">
+        <f t="shared" ca="1" si="26"/>
+        <v>111</v>
+      </c>
+      <c r="G139">
+        <f t="shared" ca="1" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="H139">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I139">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ca="1" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="K139">
+        <f t="shared" ca="1" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="L139">
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
+      </c>
+      <c r="M139">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D140">
+        <f t="shared" ca="1" si="24"/>
+        <v>71</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F140">
+        <f t="shared" ca="1" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="G140">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H140">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I140">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J140">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="K140">
+        <f t="shared" ca="1" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="L140">
+        <f t="shared" ca="1" si="22"/>
+        <v>76</v>
+      </c>
+      <c r="M140">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D141">
+        <f t="shared" ca="1" si="24"/>
+        <v>71</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ca="1" si="26"/>
+        <v>120</v>
+      </c>
+      <c r="G141">
+        <f t="shared" ca="1" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="H141">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I141">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J141">
+        <f t="shared" ca="1" si="20"/>
+        <v>70</v>
+      </c>
+      <c r="K141">
+        <f t="shared" ca="1" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="L141">
+        <f t="shared" ca="1" si="22"/>
+        <v>80</v>
+      </c>
+      <c r="M141">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D142">
+        <f t="shared" ca="1" si="24"/>
+        <v>77</v>
+      </c>
+      <c r="E142">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F142">
+        <f t="shared" ca="1" si="26"/>
+        <v>117</v>
+      </c>
+      <c r="G142">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H142">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I142">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J142">
+        <f t="shared" ca="1" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="K142">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L142">
+        <f t="shared" ca="1" si="22"/>
+        <v>76</v>
+      </c>
+      <c r="M142">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D143">
+        <f t="shared" ca="1" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="E143">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ca="1" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="G143">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H143">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I143">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J143">
+        <f t="shared" ca="1" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="K143">
+        <f t="shared" ca="1" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="L143">
+        <f t="shared" ca="1" si="22"/>
+        <v>74</v>
+      </c>
+      <c r="M143">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D144">
+        <f t="shared" ca="1" si="24"/>
+        <v>73</v>
+      </c>
+      <c r="E144">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F144">
+        <f t="shared" ca="1" si="26"/>
+        <v>117</v>
+      </c>
+      <c r="G144">
+        <f t="shared" ca="1" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="H144">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I144">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J144">
+        <f t="shared" ca="1" si="20"/>
+        <v>76</v>
+      </c>
+      <c r="K144">
+        <f t="shared" ca="1" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="L144">
+        <f t="shared" ca="1" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="M144">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D145">
+        <f t="shared" ca="1" si="24"/>
+        <v>79</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F145">
+        <f t="shared" ca="1" si="26"/>
+        <v>112</v>
+      </c>
+      <c r="G145">
+        <f t="shared" ca="1" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="H145">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I145">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J145">
+        <f t="shared" ca="1" si="20"/>
+        <v>77</v>
+      </c>
+      <c r="K145">
+        <f t="shared" ca="1" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L145">
+        <f t="shared" ca="1" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="M145">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D146">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F146">
+        <f t="shared" ca="1" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="G146">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H146">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I146">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J146">
+        <f t="shared" ca="1" si="20"/>
+        <v>74</v>
+      </c>
+      <c r="K146">
+        <f t="shared" ca="1" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="L146">
+        <f t="shared" ca="1" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="M146">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D147">
+        <f t="shared" ca="1" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="E147">
+        <f t="shared" ca="1" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="F147">
+        <f t="shared" ca="1" si="26"/>
+        <v>119</v>
+      </c>
+      <c r="G147">
+        <f t="shared" ca="1" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="H147">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I147">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J147">
+        <f t="shared" ca="1" si="20"/>
+        <v>75</v>
+      </c>
+      <c r="K147">
+        <f t="shared" ca="1" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="L147">
+        <f t="shared" ca="1" si="22"/>
+        <v>74</v>
+      </c>
+      <c r="M147">
+        <f t="shared" ca="1" si="23"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D148">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="E148">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F148">
+        <f t="shared" ca="1" si="26"/>
+        <v>112</v>
+      </c>
+      <c r="G148">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H148">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I148">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J148">
+        <f t="shared" ca="1" si="20"/>
+        <v>73</v>
+      </c>
+      <c r="K148">
+        <f t="shared" ca="1" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="L148">
+        <f t="shared" ca="1" si="22"/>
+        <v>72</v>
+      </c>
+      <c r="M148">
+        <f t="shared" ca="1" si="23"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D149">
+        <f t="shared" ca="1" si="24"/>
+        <v>74</v>
+      </c>
+      <c r="E149">
+        <f t="shared" ca="1" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="F149">
+        <f t="shared" ca="1" si="26"/>
+        <v>111</v>
+      </c>
+      <c r="G149">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H149">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I149">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J149">
+        <f t="shared" ca="1" si="20"/>
+        <v>75</v>
+      </c>
+      <c r="K149">
+        <f t="shared" ca="1" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="L149">
+        <f t="shared" ca="1" si="22"/>
+        <v>78</v>
+      </c>
+      <c r="M149">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D150">
+        <f t="shared" ca="1" si="24"/>
+        <v>79</v>
+      </c>
+      <c r="E150">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F150">
+        <f t="shared" ca="1" si="26"/>
+        <v>112</v>
+      </c>
+      <c r="G150">
+        <f t="shared" ca="1" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="H150">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I150">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J150">
+        <f t="shared" ref="J150:J205" ca="1" si="30">RANDBETWEEN(70,80)</f>
+        <v>76</v>
+      </c>
+      <c r="K150">
+        <f t="shared" ref="K150:K205" ca="1" si="31">RANDBETWEEN(65,70)</f>
+        <v>67</v>
+      </c>
+      <c r="L150">
+        <f t="shared" ref="L150:L205" ca="1" si="32">RANDBETWEEN(70,80)</f>
+        <v>71</v>
+      </c>
+      <c r="M150">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D151">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F151">
+        <f t="shared" ca="1" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="G151">
+        <f t="shared" ca="1" si="27"/>
+        <v>105</v>
+      </c>
+      <c r="H151">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I151">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J151">
+        <f t="shared" ca="1" si="30"/>
+        <v>79</v>
+      </c>
+      <c r="K151">
+        <f t="shared" ca="1" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="L151">
+        <f t="shared" ca="1" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="M151">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D152">
+        <f t="shared" ca="1" si="24"/>
+        <v>80</v>
+      </c>
+      <c r="E152">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F152">
+        <f t="shared" ca="1" si="26"/>
+        <v>116</v>
+      </c>
+      <c r="G152">
+        <f t="shared" ca="1" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="H152">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I152">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J152">
+        <f t="shared" ca="1" si="30"/>
+        <v>71</v>
+      </c>
+      <c r="K152">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L152">
+        <f t="shared" ca="1" si="32"/>
+        <v>76</v>
+      </c>
+      <c r="M152">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D153">
+        <f t="shared" ca="1" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="E153">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F153">
+        <f t="shared" ca="1" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="G153">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H153">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I153">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J153">
+        <f t="shared" ca="1" si="30"/>
+        <v>71</v>
+      </c>
+      <c r="K153">
+        <f t="shared" ca="1" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="L153">
+        <f t="shared" ca="1" si="32"/>
+        <v>76</v>
+      </c>
+      <c r="M153">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D154">
+        <f t="shared" ca="1" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="E154">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F154">
+        <f t="shared" ca="1" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="G154">
+        <f t="shared" ca="1" si="27"/>
+        <v>105</v>
+      </c>
+      <c r="H154">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I154">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J154">
+        <f t="shared" ca="1" si="30"/>
+        <v>76</v>
+      </c>
+      <c r="K154">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L154">
+        <f t="shared" ca="1" si="32"/>
+        <v>73</v>
+      </c>
+      <c r="M154">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D155">
+        <f t="shared" ca="1" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="E155">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F155">
+        <f t="shared" ca="1" si="26"/>
+        <v>112</v>
+      </c>
+      <c r="G155">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H155">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I155">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J155">
+        <f t="shared" ca="1" si="30"/>
+        <v>71</v>
+      </c>
+      <c r="K155">
+        <f t="shared" ca="1" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="L155">
+        <f t="shared" ca="1" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="M155">
+        <f t="shared" ca="1" si="23"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D156">
+        <f t="shared" ca="1" si="24"/>
+        <v>80</v>
+      </c>
+      <c r="E156">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F156">
+        <f t="shared" ca="1" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="G156">
+        <f t="shared" ca="1" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="H156">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I156">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J156">
+        <f t="shared" ca="1" si="30"/>
+        <v>73</v>
+      </c>
+      <c r="K156">
+        <f t="shared" ca="1" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="L156">
+        <f t="shared" ca="1" si="32"/>
+        <v>77</v>
+      </c>
+      <c r="M156">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D157">
+        <f t="shared" ca="1" si="24"/>
+        <v>77</v>
+      </c>
+      <c r="E157">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F157">
+        <f t="shared" ca="1" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="G157">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H157">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I157">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J157">
+        <f t="shared" ca="1" si="30"/>
+        <v>75</v>
+      </c>
+      <c r="K157">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L157">
+        <f t="shared" ca="1" si="32"/>
+        <v>70</v>
+      </c>
+      <c r="M157">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D158">
+        <f t="shared" ca="1" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="E158">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F158">
+        <f t="shared" ca="1" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="G158">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H158">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I158">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J158">
+        <f t="shared" ca="1" si="30"/>
+        <v>77</v>
+      </c>
+      <c r="K158">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L158">
+        <f t="shared" ca="1" si="32"/>
+        <v>73</v>
+      </c>
+      <c r="M158">
+        <f t="shared" ca="1" si="23"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D159">
+        <f t="shared" ca="1" si="24"/>
+        <v>71</v>
+      </c>
+      <c r="E159">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F159">
+        <f t="shared" ca="1" si="26"/>
+        <v>113</v>
+      </c>
+      <c r="G159">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H159">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I159">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J159">
+        <f t="shared" ca="1" si="30"/>
+        <v>70</v>
+      </c>
+      <c r="K159">
+        <f t="shared" ca="1" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="L159">
+        <f t="shared" ca="1" si="32"/>
+        <v>76</v>
+      </c>
+      <c r="M159">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D160">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="E160">
+        <f t="shared" ca="1" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="F160">
+        <f t="shared" ca="1" si="26"/>
+        <v>120</v>
+      </c>
+      <c r="G160">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H160">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I160">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J160">
+        <f t="shared" ca="1" si="30"/>
+        <v>79</v>
+      </c>
+      <c r="K160">
+        <f t="shared" ca="1" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="L160">
+        <f t="shared" ca="1" si="32"/>
+        <v>75</v>
+      </c>
+      <c r="M160">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D161">
+        <f t="shared" ca="1" si="24"/>
+        <v>79</v>
+      </c>
+      <c r="E161">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F161">
+        <f t="shared" ca="1" si="26"/>
+        <v>114</v>
+      </c>
+      <c r="G161">
+        <f t="shared" ca="1" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="H161">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I161">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J161">
+        <f t="shared" ca="1" si="30"/>
+        <v>71</v>
+      </c>
+      <c r="K161">
+        <f t="shared" ca="1" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="L161">
+        <f t="shared" ca="1" si="32"/>
+        <v>79</v>
+      </c>
+      <c r="M161">
+        <f t="shared" ca="1" si="23"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D162">
+        <f t="shared" ca="1" si="24"/>
+        <v>73</v>
+      </c>
+      <c r="E162">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F162">
+        <f t="shared" ca="1" si="26"/>
+        <v>120</v>
+      </c>
+      <c r="G162">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H162">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I162">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J162">
+        <f t="shared" ca="1" si="30"/>
+        <v>70</v>
+      </c>
+      <c r="K162">
+        <f t="shared" ca="1" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="L162">
+        <f t="shared" ca="1" si="32"/>
+        <v>72</v>
+      </c>
+      <c r="M162">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D163">
+        <f t="shared" ca="1" si="24"/>
+        <v>74</v>
+      </c>
+      <c r="E163">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F163">
+        <f t="shared" ca="1" si="26"/>
+        <v>119</v>
+      </c>
+      <c r="G163">
+        <f t="shared" ca="1" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="H163">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I163">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J163">
+        <f t="shared" ca="1" si="30"/>
+        <v>79</v>
+      </c>
+      <c r="K163">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L163">
+        <f t="shared" ca="1" si="32"/>
+        <v>76</v>
+      </c>
+      <c r="M163">
+        <f t="shared" ca="1" si="23"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="164" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D164">
+        <f t="shared" ca="1" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="E164">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F164">
+        <f t="shared" ca="1" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="G164">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H164">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I164">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J164">
+        <f t="shared" ca="1" si="30"/>
+        <v>80</v>
+      </c>
+      <c r="K164">
+        <f t="shared" ca="1" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="L164">
+        <f t="shared" ca="1" si="32"/>
+        <v>77</v>
+      </c>
+      <c r="M164">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D165">
+        <f t="shared" ca="1" si="24"/>
+        <v>79</v>
+      </c>
+      <c r="E165">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F165">
+        <f t="shared" ca="1" si="26"/>
+        <v>119</v>
+      </c>
+      <c r="G165">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H165">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I165">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J165">
+        <f t="shared" ca="1" si="30"/>
+        <v>79</v>
+      </c>
+      <c r="K165">
+        <f t="shared" ca="1" si="31"/>
+        <v>68</v>
+      </c>
+      <c r="L165">
+        <f t="shared" ca="1" si="32"/>
+        <v>78</v>
+      </c>
+      <c r="M165">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D166">
+        <f t="shared" ca="1" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="E166">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F166">
+        <f t="shared" ca="1" si="26"/>
+        <v>114</v>
+      </c>
+      <c r="G166">
+        <f t="shared" ca="1" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="H166">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I166">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J166">
+        <f t="shared" ca="1" si="30"/>
+        <v>79</v>
+      </c>
+      <c r="K166">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L166">
+        <f t="shared" ca="1" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="M166">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D167">
+        <f t="shared" ca="1" si="24"/>
+        <v>71</v>
+      </c>
+      <c r="E167">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F167">
+        <f t="shared" ca="1" si="26"/>
+        <v>117</v>
+      </c>
+      <c r="G167">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H167">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I167">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J167">
+        <f t="shared" ca="1" si="30"/>
+        <v>75</v>
+      </c>
+      <c r="K167">
+        <f t="shared" ca="1" si="31"/>
+        <v>68</v>
+      </c>
+      <c r="L167">
+        <f t="shared" ca="1" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="M167">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D168">
+        <f t="shared" ca="1" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="E168">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F168">
+        <f t="shared" ca="1" si="26"/>
+        <v>117</v>
+      </c>
+      <c r="G168">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H168">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I168">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J168">
+        <f t="shared" ca="1" si="30"/>
+        <v>77</v>
+      </c>
+      <c r="K168">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L168">
+        <f t="shared" ca="1" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="M168">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D169">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="E169">
+        <f t="shared" ca="1" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="F169">
+        <f t="shared" ca="1" si="26"/>
+        <v>111</v>
+      </c>
+      <c r="G169">
+        <f t="shared" ca="1" si="27"/>
+        <v>105</v>
+      </c>
+      <c r="H169">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I169">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J169">
+        <f t="shared" ca="1" si="30"/>
+        <v>71</v>
+      </c>
+      <c r="K169">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L169">
+        <f t="shared" ca="1" si="32"/>
+        <v>79</v>
+      </c>
+      <c r="M169">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D170">
+        <f t="shared" ca="1" si="24"/>
+        <v>74</v>
+      </c>
+      <c r="E170">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F170">
+        <f t="shared" ca="1" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="G170">
+        <f t="shared" ca="1" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="H170">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I170">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J170">
+        <f t="shared" ca="1" si="30"/>
+        <v>75</v>
+      </c>
+      <c r="K170">
+        <f t="shared" ca="1" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="L170">
+        <f t="shared" ca="1" si="32"/>
+        <v>72</v>
+      </c>
+      <c r="M170">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="171" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D171">
+        <f t="shared" ca="1" si="24"/>
+        <v>79</v>
+      </c>
+      <c r="E171">
+        <f t="shared" ca="1" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="F171">
+        <f t="shared" ca="1" si="26"/>
+        <v>116</v>
+      </c>
+      <c r="G171">
+        <f t="shared" ca="1" si="27"/>
+        <v>105</v>
+      </c>
+      <c r="H171">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I171">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J171">
+        <f t="shared" ca="1" si="30"/>
+        <v>79</v>
+      </c>
+      <c r="K171">
+        <f t="shared" ca="1" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="L171">
+        <f t="shared" ca="1" si="32"/>
+        <v>78</v>
+      </c>
+      <c r="M171">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="172" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D172">
+        <f t="shared" ca="1" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="E172">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F172">
+        <f t="shared" ca="1" si="26"/>
+        <v>117</v>
+      </c>
+      <c r="G172">
+        <f t="shared" ca="1" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="H172">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I172">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J172">
+        <f t="shared" ca="1" si="30"/>
+        <v>80</v>
+      </c>
+      <c r="K172">
+        <f t="shared" ca="1" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="L172">
+        <f t="shared" ca="1" si="32"/>
+        <v>72</v>
+      </c>
+      <c r="M172">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D173">
+        <f t="shared" ca="1" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="E173">
+        <f t="shared" ca="1" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="F173">
+        <f t="shared" ca="1" si="26"/>
+        <v>116</v>
+      </c>
+      <c r="G173">
+        <f t="shared" ca="1" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="H173">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I173">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J173">
+        <f t="shared" ca="1" si="30"/>
+        <v>75</v>
+      </c>
+      <c r="K173">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L173">
+        <f t="shared" ca="1" si="32"/>
+        <v>76</v>
+      </c>
+      <c r="M173">
+        <f t="shared" ca="1" si="23"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D174">
+        <f t="shared" ca="1" si="24"/>
+        <v>71</v>
+      </c>
+      <c r="E174">
+        <f t="shared" ca="1" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="F174">
+        <f t="shared" ca="1" si="26"/>
+        <v>120</v>
+      </c>
+      <c r="G174">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H174">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I174">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J174">
+        <f t="shared" ca="1" si="30"/>
+        <v>70</v>
+      </c>
+      <c r="K174">
+        <f t="shared" ca="1" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="L174">
+        <f t="shared" ca="1" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="M174">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D175">
+        <f t="shared" ca="1" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="E175">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F175">
+        <f t="shared" ca="1" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="G175">
+        <f t="shared" ca="1" si="27"/>
+        <v>105</v>
+      </c>
+      <c r="H175">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I175">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J175">
+        <f t="shared" ca="1" si="30"/>
+        <v>77</v>
+      </c>
+      <c r="K175">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L175">
+        <f t="shared" ca="1" si="32"/>
+        <v>71</v>
+      </c>
+      <c r="M175">
+        <f t="shared" ca="1" si="23"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="176" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D176">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="E176">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F176">
+        <f t="shared" ca="1" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="G176">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H176">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I176">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J176">
+        <f t="shared" ca="1" si="30"/>
+        <v>76</v>
+      </c>
+      <c r="K176">
+        <f t="shared" ca="1" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="L176">
+        <f t="shared" ca="1" si="32"/>
+        <v>78</v>
+      </c>
+      <c r="M176">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D177">
+        <f t="shared" ca="1" si="24"/>
+        <v>73</v>
+      </c>
+      <c r="E177">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F177">
+        <f t="shared" ca="1" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="G177">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H177">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I177">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J177">
+        <f t="shared" ca="1" si="30"/>
+        <v>79</v>
+      </c>
+      <c r="K177">
+        <f t="shared" ca="1" si="31"/>
+        <v>68</v>
+      </c>
+      <c r="L177">
+        <f t="shared" ca="1" si="32"/>
+        <v>71</v>
+      </c>
+      <c r="M177">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D178">
+        <f t="shared" ca="1" si="24"/>
+        <v>74</v>
+      </c>
+      <c r="E178">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F178">
+        <f t="shared" ca="1" si="26"/>
+        <v>111</v>
+      </c>
+      <c r="G178">
+        <f t="shared" ca="1" si="27"/>
+        <v>105</v>
+      </c>
+      <c r="H178">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I178">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J178">
+        <f t="shared" ca="1" si="30"/>
+        <v>70</v>
+      </c>
+      <c r="K178">
+        <f t="shared" ca="1" si="31"/>
+        <v>68</v>
+      </c>
+      <c r="L178">
+        <f t="shared" ca="1" si="32"/>
+        <v>75</v>
+      </c>
+      <c r="M178">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D179">
+        <f t="shared" ca="1" si="24"/>
+        <v>74</v>
+      </c>
+      <c r="E179">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F179">
+        <f t="shared" ca="1" si="26"/>
+        <v>114</v>
+      </c>
+      <c r="G179">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H179">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I179">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J179">
+        <f t="shared" ca="1" si="30"/>
+        <v>78</v>
+      </c>
+      <c r="K179">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L179">
+        <f t="shared" ca="1" si="32"/>
+        <v>77</v>
+      </c>
+      <c r="M179">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="180" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D180">
+        <f t="shared" ca="1" si="24"/>
+        <v>79</v>
+      </c>
+      <c r="E180">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F180">
+        <f t="shared" ca="1" si="26"/>
+        <v>116</v>
+      </c>
+      <c r="G180">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H180">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I180">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J180">
+        <f t="shared" ca="1" si="30"/>
+        <v>73</v>
+      </c>
+      <c r="K180">
+        <f t="shared" ca="1" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="L180">
+        <f t="shared" ca="1" si="32"/>
+        <v>77</v>
+      </c>
+      <c r="M180">
+        <f t="shared" ca="1" si="23"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="181" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D181">
+        <f t="shared" ca="1" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="E181">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F181">
+        <f t="shared" ca="1" si="26"/>
+        <v>117</v>
+      </c>
+      <c r="G181">
+        <f t="shared" ca="1" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="H181">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I181">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J181">
+        <f t="shared" ca="1" si="30"/>
+        <v>75</v>
+      </c>
+      <c r="K181">
+        <f t="shared" ca="1" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="L181">
+        <f t="shared" ca="1" si="32"/>
+        <v>70</v>
+      </c>
+      <c r="M181">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="182" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D182">
+        <f t="shared" ca="1" si="24"/>
+        <v>73</v>
+      </c>
+      <c r="E182">
+        <f t="shared" ca="1" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="F182">
+        <f t="shared" ca="1" si="26"/>
+        <v>114</v>
+      </c>
+      <c r="G182">
+        <f t="shared" ca="1" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="H182">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I182">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J182">
+        <f t="shared" ca="1" si="30"/>
+        <v>74</v>
+      </c>
+      <c r="K182">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L182">
+        <f t="shared" ca="1" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="M182">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D183">
+        <f t="shared" ca="1" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="E183">
+        <f t="shared" ca="1" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="F183">
+        <f t="shared" ca="1" si="26"/>
+        <v>113</v>
+      </c>
+      <c r="G183">
+        <f t="shared" ca="1" si="27"/>
+        <v>105</v>
+      </c>
+      <c r="H183">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I183">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J183">
+        <f t="shared" ca="1" si="30"/>
+        <v>70</v>
+      </c>
+      <c r="K183">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L183">
+        <f t="shared" ca="1" si="32"/>
+        <v>77</v>
+      </c>
+      <c r="M183">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D184">
+        <f t="shared" ca="1" si="24"/>
+        <v>79</v>
+      </c>
+      <c r="E184">
+        <f t="shared" ca="1" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="F184">
+        <f t="shared" ca="1" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="G184">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H184">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I184">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J184">
+        <f t="shared" ca="1" si="30"/>
+        <v>80</v>
+      </c>
+      <c r="K184">
+        <f t="shared" ca="1" si="31"/>
+        <v>68</v>
+      </c>
+      <c r="L184">
+        <f t="shared" ca="1" si="32"/>
+        <v>70</v>
+      </c>
+      <c r="M184">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D185">
+        <f t="shared" ca="1" si="24"/>
+        <v>74</v>
+      </c>
+      <c r="E185">
+        <f t="shared" ca="1" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="F185">
+        <f t="shared" ca="1" si="26"/>
+        <v>111</v>
+      </c>
+      <c r="G185">
+        <f t="shared" ca="1" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="H185">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I185">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J185">
+        <f t="shared" ca="1" si="30"/>
+        <v>72</v>
+      </c>
+      <c r="K185">
+        <f t="shared" ca="1" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="L185">
+        <f t="shared" ca="1" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="M185">
+        <f t="shared" ca="1" si="23"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="186" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D186">
+        <f t="shared" ca="1" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="E186">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F186">
+        <f t="shared" ca="1" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="G186">
+        <f t="shared" ca="1" si="27"/>
+        <v>105</v>
+      </c>
+      <c r="H186">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I186">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J186">
+        <f t="shared" ca="1" si="30"/>
+        <v>70</v>
+      </c>
+      <c r="K186">
+        <f t="shared" ca="1" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="L186">
+        <f t="shared" ca="1" si="32"/>
+        <v>70</v>
+      </c>
+      <c r="M186">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D187">
+        <f t="shared" ca="1" si="24"/>
+        <v>79</v>
+      </c>
+      <c r="E187">
+        <f t="shared" ca="1" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="F187">
+        <f t="shared" ca="1" si="26"/>
+        <v>114</v>
+      </c>
+      <c r="G187">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H187">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I187">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J187">
+        <f t="shared" ca="1" si="30"/>
+        <v>76</v>
+      </c>
+      <c r="K187">
+        <f t="shared" ca="1" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="L187">
+        <f t="shared" ca="1" si="32"/>
+        <v>75</v>
+      </c>
+      <c r="M187">
+        <f t="shared" ca="1" si="23"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D188">
+        <f t="shared" ca="1" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="E188">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F188">
+        <f t="shared" ca="1" si="26"/>
+        <v>114</v>
+      </c>
+      <c r="G188">
+        <f t="shared" ca="1" si="27"/>
+        <v>105</v>
+      </c>
+      <c r="H188">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I188">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J188">
+        <f t="shared" ca="1" si="30"/>
+        <v>74</v>
+      </c>
+      <c r="K188">
+        <f t="shared" ca="1" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="L188">
+        <f t="shared" ca="1" si="32"/>
+        <v>77</v>
+      </c>
+      <c r="M188">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="189" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D189">
+        <f t="shared" ca="1" si="24"/>
+        <v>71</v>
+      </c>
+      <c r="E189">
+        <f t="shared" ca="1" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="F189">
+        <f t="shared" ca="1" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="G189">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H189">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I189">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J189">
+        <f t="shared" ca="1" si="30"/>
+        <v>78</v>
+      </c>
+      <c r="K189">
+        <f t="shared" ca="1" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="L189">
+        <f t="shared" ca="1" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="M189">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="190" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D190">
+        <f t="shared" ca="1" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="E190">
+        <f t="shared" ca="1" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="F190">
+        <f t="shared" ca="1" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="G190">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H190">
+        <f t="shared" ca="1" si="28"/>
+        <v>45</v>
+      </c>
+      <c r="I190">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J190">
+        <f t="shared" ca="1" si="30"/>
+        <v>75</v>
+      </c>
+      <c r="K190">
+        <f t="shared" ca="1" si="31"/>
+        <v>68</v>
+      </c>
+      <c r="L190">
+        <f t="shared" ca="1" si="32"/>
+        <v>71</v>
+      </c>
+      <c r="M190">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D191">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="E191">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F191">
+        <f t="shared" ca="1" si="26"/>
+        <v>114</v>
+      </c>
+      <c r="G191">
+        <f t="shared" ca="1" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="H191">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I191">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J191">
+        <f t="shared" ca="1" si="30"/>
+        <v>77</v>
+      </c>
+      <c r="K191">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L191">
+        <f t="shared" ca="1" si="32"/>
+        <v>79</v>
+      </c>
+      <c r="M191">
+        <f t="shared" ca="1" si="23"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D192">
+        <f t="shared" ca="1" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="E192">
+        <f t="shared" ca="1" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="F192">
+        <f t="shared" ca="1" si="26"/>
+        <v>116</v>
+      </c>
+      <c r="G192">
+        <f t="shared" ca="1" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="H192">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I192">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J192">
+        <f t="shared" ca="1" si="30"/>
+        <v>72</v>
+      </c>
+      <c r="K192">
+        <f t="shared" ca="1" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="L192">
+        <f t="shared" ca="1" si="32"/>
+        <v>79</v>
+      </c>
+      <c r="M192">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="193" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D193">
+        <f t="shared" ca="1" si="24"/>
+        <v>73</v>
+      </c>
+      <c r="E193">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F193">
+        <f t="shared" ca="1" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="G193">
+        <f t="shared" ca="1" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="H193">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I193">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J193">
+        <f t="shared" ca="1" si="30"/>
+        <v>78</v>
+      </c>
+      <c r="K193">
+        <f t="shared" ca="1" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="L193">
+        <f t="shared" ca="1" si="32"/>
+        <v>70</v>
+      </c>
+      <c r="M193">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="194" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D194">
+        <f t="shared" ca="1" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="E194">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F194">
+        <f t="shared" ca="1" si="26"/>
+        <v>112</v>
+      </c>
+      <c r="G194">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H194">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I194">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J194">
+        <f t="shared" ca="1" si="30"/>
+        <v>71</v>
+      </c>
+      <c r="K194">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L194">
+        <f t="shared" ca="1" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="M194">
+        <f t="shared" ca="1" si="23"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D195">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ca="1" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ca="1" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ca="1" si="27"/>
+        <v>109</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I195">
+        <f t="shared" ca="1" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J195">
+        <f t="shared" ca="1" si="30"/>
+        <v>73</v>
+      </c>
+      <c r="K195">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L195">
+        <f t="shared" ca="1" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="M195">
+        <f t="shared" ca="1" si="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="196" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D196">
+        <f t="shared" ca="1" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="E196">
+        <f t="shared" ca="1" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="F196">
+        <f t="shared" ca="1" si="26"/>
+        <v>112</v>
+      </c>
+      <c r="G196">
+        <f t="shared" ca="1" si="27"/>
+        <v>110</v>
+      </c>
+      <c r="H196">
+        <f t="shared" ca="1" si="28"/>
+        <v>47</v>
+      </c>
+      <c r="I196">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J196">
+        <f t="shared" ca="1" si="30"/>
+        <v>74</v>
+      </c>
+      <c r="K196">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L196">
+        <f t="shared" ca="1" si="32"/>
+        <v>72</v>
+      </c>
+      <c r="M196">
+        <f t="shared" ca="1" si="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D197">
+        <f t="shared" ca="1" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="E197">
+        <f t="shared" ca="1" si="25"/>
+        <v>68</v>
+      </c>
+      <c r="F197">
+        <f t="shared" ca="1" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="G197">
+        <f t="shared" ca="1" si="27"/>
+        <v>107</v>
+      </c>
+      <c r="H197">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I197">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J197">
+        <f t="shared" ca="1" si="30"/>
+        <v>80</v>
+      </c>
+      <c r="K197">
+        <f t="shared" ca="1" si="31"/>
+        <v>67</v>
+      </c>
+      <c r="L197">
+        <f t="shared" ca="1" si="32"/>
+        <v>77</v>
+      </c>
+      <c r="M197">
+        <f t="shared" ca="1" si="23"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="198" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D198">
+        <f t="shared" ca="1" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="E198">
+        <f t="shared" ca="1" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="F198">
+        <f t="shared" ca="1" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="G198">
+        <f t="shared" ca="1" si="27"/>
+        <v>106</v>
+      </c>
+      <c r="H198">
+        <f t="shared" ca="1" si="28"/>
+        <v>46</v>
+      </c>
+      <c r="I198">
+        <f t="shared" ca="1" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="J198">
+        <f t="shared" ca="1" si="30"/>
+        <v>77</v>
+      </c>
+      <c r="K198">
+        <f t="shared" ca="1" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="L198">
+        <f t="shared" ca="1" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="M198">
+        <f t="shared" ref="M198:M205" ca="1" si="33">RANDBETWEEN(65,70)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D199">
+        <f t="shared" ref="D199:D204" ca="1" si="34">RANDBETWEEN(70,80)</f>
+        <v>76</v>
+      </c>
+      <c r="E199">
+        <f t="shared" ref="E199:E204" ca="1" si="35">RANDBETWEEN(65,70)</f>
+        <v>68</v>
+      </c>
+      <c r="F199">
+        <f t="shared" ref="F199:F204" ca="1" si="36">RANDBETWEEN(110,120)</f>
+        <v>118</v>
+      </c>
+      <c r="G199">
+        <f t="shared" ref="G199:G204" ca="1" si="37">RANDBETWEEN(105,110)</f>
+        <v>107</v>
+      </c>
+      <c r="H199">
+        <f t="shared" ref="H199:H204" ca="1" si="38">RANDBETWEEN(45,47)</f>
+        <v>47</v>
+      </c>
+      <c r="I199">
+        <f t="shared" ref="I199:I204" ca="1" si="39">RANDBETWEEN(44,45)</f>
+        <v>45</v>
+      </c>
+      <c r="J199">
+        <f t="shared" ca="1" si="30"/>
+        <v>78</v>
+      </c>
+      <c r="K199">
+        <f t="shared" ca="1" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="L199">
+        <f t="shared" ca="1" si="32"/>
+        <v>71</v>
+      </c>
+      <c r="M199">
+        <f t="shared" ca="1" si="33"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D200">
+        <f t="shared" ca="1" si="34"/>
+        <v>76</v>
+      </c>
+      <c r="E200">
+        <f t="shared" ca="1" si="35"/>
+        <v>70</v>
+      </c>
+      <c r="F200">
+        <f t="shared" ca="1" si="36"/>
+        <v>116</v>
+      </c>
+      <c r="G200">
+        <f t="shared" ca="1" si="37"/>
+        <v>107</v>
+      </c>
+      <c r="H200">
+        <f t="shared" ca="1" si="38"/>
+        <v>46</v>
+      </c>
+      <c r="I200">
+        <f t="shared" ca="1" si="39"/>
+        <v>44</v>
+      </c>
+      <c r="J200">
+        <f t="shared" ca="1" si="30"/>
+        <v>72</v>
+      </c>
+      <c r="K200">
+        <f t="shared" ca="1" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="L200">
+        <f t="shared" ca="1" si="32"/>
+        <v>78</v>
+      </c>
+      <c r="M200">
+        <f t="shared" ca="1" si="33"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="201" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D201">
+        <f t="shared" ca="1" si="34"/>
+        <v>76</v>
+      </c>
+      <c r="E201">
+        <f t="shared" ca="1" si="35"/>
+        <v>68</v>
+      </c>
+      <c r="F201">
+        <f t="shared" ca="1" si="36"/>
+        <v>110</v>
+      </c>
+      <c r="G201">
+        <f t="shared" ca="1" si="37"/>
+        <v>107</v>
+      </c>
+      <c r="H201">
+        <f t="shared" ca="1" si="38"/>
+        <v>45</v>
+      </c>
+      <c r="I201">
+        <f t="shared" ca="1" si="39"/>
+        <v>45</v>
+      </c>
+      <c r="J201">
+        <f t="shared" ca="1" si="30"/>
+        <v>77</v>
+      </c>
+      <c r="K201">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L201">
+        <f t="shared" ca="1" si="32"/>
+        <v>77</v>
+      </c>
+      <c r="M201">
+        <f t="shared" ca="1" si="33"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D202">
+        <f t="shared" ca="1" si="34"/>
+        <v>77</v>
+      </c>
+      <c r="E202">
+        <f t="shared" ca="1" si="35"/>
+        <v>67</v>
+      </c>
+      <c r="F202">
+        <f t="shared" ca="1" si="36"/>
+        <v>120</v>
+      </c>
+      <c r="G202">
+        <f t="shared" ca="1" si="37"/>
+        <v>106</v>
+      </c>
+      <c r="H202">
+        <f t="shared" ca="1" si="38"/>
+        <v>46</v>
+      </c>
+      <c r="I202">
+        <f t="shared" ca="1" si="39"/>
+        <v>44</v>
+      </c>
+      <c r="J202">
+        <f t="shared" ca="1" si="30"/>
+        <v>79</v>
+      </c>
+      <c r="K202">
+        <f t="shared" ca="1" si="31"/>
+        <v>68</v>
+      </c>
+      <c r="L202">
+        <f t="shared" ca="1" si="32"/>
+        <v>75</v>
+      </c>
+      <c r="M202">
+        <f t="shared" ca="1" si="33"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D203">
+        <f t="shared" ca="1" si="34"/>
+        <v>75</v>
+      </c>
+      <c r="E203">
+        <f t="shared" ca="1" si="35"/>
+        <v>69</v>
+      </c>
+      <c r="F203">
+        <f t="shared" ca="1" si="36"/>
+        <v>117</v>
+      </c>
+      <c r="G203">
+        <f t="shared" ca="1" si="37"/>
+        <v>105</v>
+      </c>
+      <c r="H203">
+        <f t="shared" ca="1" si="38"/>
+        <v>45</v>
+      </c>
+      <c r="I203">
+        <f t="shared" ca="1" si="39"/>
+        <v>44</v>
+      </c>
+      <c r="J203">
+        <f t="shared" ca="1" si="30"/>
+        <v>73</v>
+      </c>
+      <c r="K203">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L203">
+        <f t="shared" ca="1" si="32"/>
+        <v>79</v>
+      </c>
+      <c r="M203">
+        <f t="shared" ca="1" si="33"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="204" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D204">
+        <f t="shared" ca="1" si="34"/>
+        <v>77</v>
+      </c>
+      <c r="E204">
+        <f t="shared" ca="1" si="35"/>
+        <v>67</v>
+      </c>
+      <c r="F204">
+        <f t="shared" ca="1" si="36"/>
+        <v>110</v>
+      </c>
+      <c r="G204">
+        <f t="shared" ca="1" si="37"/>
+        <v>108</v>
+      </c>
+      <c r="H204">
+        <f t="shared" ca="1" si="38"/>
+        <v>47</v>
+      </c>
+      <c r="I204">
+        <f t="shared" ca="1" si="39"/>
+        <v>45</v>
+      </c>
+      <c r="J204">
+        <f t="shared" ca="1" si="30"/>
+        <v>71</v>
+      </c>
+      <c r="K204">
+        <f t="shared" ca="1" si="31"/>
+        <v>68</v>
+      </c>
+      <c r="L204">
+        <f t="shared" ca="1" si="32"/>
+        <v>77</v>
+      </c>
+      <c r="M204">
+        <f t="shared" ca="1" si="33"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="205" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D205">
+        <f ca="1">RANDBETWEEN(70,80)</f>
+        <v>73</v>
+      </c>
+      <c r="E205">
+        <f ca="1">RANDBETWEEN(65,70)</f>
+        <v>69</v>
+      </c>
+      <c r="F205">
+        <f ca="1">RANDBETWEEN(110,120)</f>
+        <v>120</v>
+      </c>
+      <c r="G205">
+        <f ca="1">RANDBETWEEN(105,110)</f>
+        <v>110</v>
+      </c>
+      <c r="H205">
+        <f ca="1">RANDBETWEEN(45,47)</f>
+        <v>47</v>
+      </c>
+      <c r="I205">
+        <f ca="1">RANDBETWEEN(44,45)</f>
+        <v>45</v>
+      </c>
+      <c r="J205">
+        <f t="shared" ca="1" si="30"/>
+        <v>72</v>
+      </c>
+      <c r="K205">
+        <f t="shared" ca="1" si="31"/>
+        <v>65</v>
+      </c>
+      <c r="L205">
+        <f t="shared" ca="1" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="M205">
+        <f t="shared" ca="1" si="33"/>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -704,81 +9116,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F02BBE-E9BC-463A-A723-4C8E524F5CF9}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="39.19921875" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/CSV Tests/Expected_vs_Detected_v1_EXCEL.xlsx
+++ b/CSV Tests/Expected_vs_Detected_v1_EXCEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Water_Trust_v1\CSV Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36206CC2-A948-4330-BE79-931DE7ADEDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A346DDD0-1320-41B8-A2B3-02576D671D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{24A3ABE9-6E4C-47AC-86E2-F48A3AFBCA0B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{24A3ABE9-6E4C-47AC-86E2-F48A3AFBCA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15507383-6451-46A8-8C82-0D6AF6E61987}">
   <dimension ref="A1:M205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -712,65 +712,65 @@
       </c>
       <c r="D6">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(65,70)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <f ca="1">RANDBETWEEN(110,120)</f>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(105,110)</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H6">
         <f ca="1">RANDBETWEEN(45,47)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(44,45)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:M21" ca="1" si="0">RANDBETWEEN(70,80)</f>
+        <f t="shared" ref="J6:J21" ca="1" si="0">RANDBETWEEN(70,80)</f>
         <v>71</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:M21" ca="1" si="1">RANDBETWEEN(65,70)</f>
+        <f t="shared" ref="K6:K21" ca="1" si="1">RANDBETWEEN(65,70)</f>
         <v>68</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:M21" ca="1" si="2">RANDBETWEEN(70,80)</f>
-        <v>75</v>
+        <f t="shared" ref="L6:L21" ca="1" si="2">RANDBETWEEN(70,80)</f>
+        <v>77</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6:M69" ca="1" si="3">RANDBETWEEN(65,70)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D7">
         <f t="shared" ref="D7:D70" ca="1" si="4">RANDBETWEEN(70,80)</f>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E70" ca="1" si="5">RANDBETWEEN(65,70)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F70" ca="1" si="6">RANDBETWEEN(110,120)</f>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G70" ca="1" si="7">RANDBETWEEN(105,110)</f>
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H70" ca="1" si="8">RANDBETWEEN(45,47)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7:I70" ca="1" si="9">RANDBETWEEN(44,45)</f>
@@ -778,11 +778,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="2"/>
@@ -790,29 +790,29 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D8">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="7"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="9"/>
@@ -820,41 +820,41 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D9">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="9"/>
@@ -862,19 +862,19 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -884,19 +884,19 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="6"/>
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="9"/>
@@ -904,25 +904,25 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D11">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="5"/>
@@ -930,7 +930,7 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="7"/>
@@ -938,33 +938,33 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D12">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="5"/>
@@ -972,31 +972,31 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="7"/>
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="3"/>
@@ -1006,19 +1006,19 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D13">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="8"/>
@@ -1026,11 +1026,11 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
@@ -1038,33 +1038,33 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D14">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="7"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="9"/>
@@ -1072,37 +1072,37 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="8"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D16">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="5"/>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="7"/>
@@ -1156,41 +1156,41 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D17">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="9"/>
@@ -1198,61 +1198,61 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D18">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="7"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.45">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="7"/>
@@ -1274,19 +1274,19 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="2"/>
@@ -1294,25 +1294,25 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D20">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="8"/>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="0"/>
@@ -1328,15 +1328,15 @@
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.45">
@@ -1346,15 +1346,15 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="7"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="8"/>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
@@ -1374,29 +1374,29 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D22">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="7"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="8"/>
@@ -1404,45 +1404,45 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="10">RANDBETWEEN(70,80)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" ca="1" si="11">RANDBETWEEN(65,70)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L22">
         <f t="shared" ref="L22:L85" ca="1" si="12">RANDBETWEEN(70,80)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D23">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="7"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="9"/>
@@ -1454,33 +1454,33 @@
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="8"/>
@@ -1488,45 +1488,45 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="9"/>
@@ -1534,11 +1534,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="12"/>
@@ -1546,29 +1546,29 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="9"/>
@@ -1576,79 +1576,79 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="8"/>
@@ -1656,41 +1656,41 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="8"/>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="10"/>
@@ -1706,45 +1706,45 @@
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="11"/>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="3"/>
@@ -1762,27 +1762,27 @@
     <row r="31" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="10"/>
@@ -1790,11 +1790,11 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="3"/>
@@ -1804,19 +1804,19 @@
     <row r="32" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="8"/>
@@ -1828,53 +1828,53 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="6"/>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="12"/>
@@ -1882,29 +1882,29 @@
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="9"/>
@@ -1912,15 +1912,15 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="3"/>
@@ -1930,61 +1930,61 @@
     <row r="35" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="8"/>
@@ -1992,41 +1992,41 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
@@ -2034,29 +2034,29 @@
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="5"/>
@@ -2064,35 +2064,35 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="7"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="10"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.45">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="6"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="7"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="9"/>
@@ -2122,37 +2122,37 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
@@ -2164,37 +2164,37 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="7"/>
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
@@ -2202,11 +2202,11 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="11"/>
@@ -2214,11 +2214,11 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.45">
@@ -2228,49 +2228,49 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="6"/>
@@ -2278,53 +2278,53 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="7"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="9"/>
@@ -2332,37 +2332,37 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
@@ -2370,45 +2370,45 @@
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="9"/>
@@ -2416,33 +2416,33 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="7"/>
@@ -2458,79 +2458,79 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="7"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="7"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
@@ -2542,19 +2542,19 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="4:13" x14ac:dyDescent="0.45">
@@ -2564,15 +2564,15 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
@@ -2580,11 +2580,11 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="11"/>
@@ -2596,75 +2596,75 @@
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="10"/>
@@ -2672,37 +2672,37 @@
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="7"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="9"/>
@@ -2714,29 +2714,29 @@
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="7"/>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="9"/>
@@ -2752,79 +2752,79 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="6"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
@@ -2836,41 +2836,41 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="9"/>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="11"/>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="5"/>
@@ -2904,53 +2904,53 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="7"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="11"/>
@@ -2970,11 +2970,11 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="4:13" x14ac:dyDescent="0.45">
@@ -2984,11 +2984,11 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="7"/>
@@ -3000,41 +3000,41 @@
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="7"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
@@ -3042,41 +3042,41 @@
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="7"/>
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="11"/>
@@ -3096,21 +3096,21 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="6"/>
@@ -3118,49 +3118,49 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="7"/>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="8"/>
@@ -3172,19 +3172,19 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="4:13" x14ac:dyDescent="0.45">
@@ -3194,15 +3194,15 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="7"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
@@ -3210,41 +3210,41 @@
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="7"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="8"/>
@@ -3256,41 +3256,41 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D67">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="7"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="9"/>
@@ -3298,19 +3298,19 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.45">
@@ -3320,27 +3320,27 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="11"/>
@@ -3348,79 +3348,79 @@
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D69">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D70">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="10"/>
@@ -3428,33 +3428,33 @@
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="M70">
         <f t="shared" ref="M70:M133" ca="1" si="13">RANDBETWEEN(65,70)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D71">
         <f t="shared" ref="D71:D134" ca="1" si="14">RANDBETWEEN(70,80)</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E71">
         <f t="shared" ref="E71:E134" ca="1" si="15">RANDBETWEEN(65,70)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F71">
         <f t="shared" ref="F71:F134" ca="1" si="16">RANDBETWEEN(110,120)</f>
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G71">
         <f t="shared" ref="G71:G134" ca="1" si="17">RANDBETWEEN(105,110)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H71">
         <f t="shared" ref="H71:H134" ca="1" si="18">RANDBETWEEN(45,47)</f>
@@ -3466,49 +3466,49 @@
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D72">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="16"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="17"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="11"/>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D73">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="16"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="18"/>
@@ -3546,11 +3546,11 @@
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="10"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="11"/>
@@ -3558,33 +3558,33 @@
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D74">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="16"/>
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="17"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="19"/>
@@ -3592,37 +3592,37 @@
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="10"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D75">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="16"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="18"/>
@@ -3638,37 +3638,37 @@
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D76">
         <f t="shared" ca="1" si="14"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="16"/>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="19"/>
@@ -3676,25 +3676,25 @@
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D77">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="15"/>
@@ -3702,11 +3702,11 @@
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="17"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="18"/>
@@ -3714,15 +3714,15 @@
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L77">
         <f t="shared" ca="1" si="12"/>
@@ -3736,19 +3736,19 @@
     <row r="78" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D78">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="16"/>
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="17"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="18"/>
@@ -3756,37 +3756,37 @@
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D79">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="16"/>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="17"/>
@@ -3794,15 +3794,15 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="11"/>
@@ -3810,33 +3810,33 @@
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D80">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="16"/>
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="17"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="19"/>
@@ -3844,37 +3844,37 @@
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D81">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="16"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="17"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="18"/>
@@ -3882,29 +3882,29 @@
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D82">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="15"/>
@@ -3912,15 +3912,15 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="16"/>
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="19"/>
@@ -3928,15 +3928,15 @@
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="10"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="13"/>
@@ -3946,23 +3946,23 @@
     <row r="83" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D83">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="19"/>
@@ -3970,83 +3970,83 @@
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D84">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D85">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="16"/>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="19"/>
@@ -4054,11 +4054,11 @@
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="12"/>
@@ -4072,15 +4072,15 @@
     <row r="86" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D86">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="16"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="17"/>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="19"/>
@@ -4096,83 +4096,83 @@
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J149" ca="1" si="20">RANDBETWEEN(70,80)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K149" ca="1" si="21">RANDBETWEEN(65,70)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L86">
         <f t="shared" ref="L86:L149" ca="1" si="22">RANDBETWEEN(70,80)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D87">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="16"/>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="17"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L87">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M87">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D88">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="16"/>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="17"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="19"/>
@@ -4180,41 +4180,41 @@
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L88">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M88">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D89">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="19"/>
@@ -4222,41 +4222,41 @@
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="20"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L89">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M89">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D90">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="16"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="17"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="19"/>
@@ -4264,41 +4264,41 @@
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L90">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M90">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D91">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="16"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="17"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="19"/>
@@ -4306,15 +4306,15 @@
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="20"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L91">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M91">
         <f t="shared" ca="1" si="13"/>
@@ -4324,23 +4324,23 @@
     <row r="92" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D92">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="16"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="17"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="19"/>
@@ -4348,33 +4348,33 @@
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L92">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M92">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D93">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="16"/>
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="17"/>
@@ -4382,45 +4382,45 @@
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="20"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L93">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M93">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D94">
         <f t="shared" ca="1" si="14"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="16"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="17"/>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="18"/>
@@ -4432,33 +4432,33 @@
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L94">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M94">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D95">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="16"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="17"/>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="19"/>
@@ -4474,15 +4474,15 @@
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="20"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L95">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M95">
         <f t="shared" ca="1" si="13"/>
@@ -4492,19 +4492,19 @@
     <row r="96" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D96">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="16"/>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="17"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="18"/>
@@ -4512,45 +4512,45 @@
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L96">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M96">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D97">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="16"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="17"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="19"/>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="21"/>
@@ -4566,29 +4566,29 @@
       </c>
       <c r="L97">
         <f t="shared" ca="1" si="22"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M97">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D98">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="16"/>
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="17"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="18"/>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="21"/>
@@ -4612,25 +4612,25 @@
       </c>
       <c r="M98">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D99">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="16"/>
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="17"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="18"/>
@@ -4638,33 +4638,33 @@
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="20"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L99">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M99">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D100">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="16"/>
@@ -4672,37 +4672,37 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="17"/>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="20"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L100">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M100">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D101">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="15"/>
@@ -4710,57 +4710,57 @@
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="16"/>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="20"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L101">
         <f t="shared" ca="1" si="22"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M101">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D102">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="17"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="19"/>
@@ -4772,21 +4772,21 @@
       </c>
       <c r="K102">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L102">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M102">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D103">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="15"/>
@@ -4794,73 +4794,73 @@
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="16"/>
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="17"/>
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I103">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <f t="shared" ca="1" si="20"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K103">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L103">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M103">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D104">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="16"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="17"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I104">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <f t="shared" ca="1" si="20"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K104">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L104">
         <f t="shared" ca="1" si="22"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M104">
         <f t="shared" ca="1" si="13"/>
@@ -4870,7 +4870,7 @@
     <row r="105" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D105">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="15"/>
@@ -4878,27 +4878,27 @@
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="16"/>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="17"/>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I105">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <f t="shared" ca="1" si="20"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K105">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L105">
         <f t="shared" ca="1" si="22"/>
@@ -4906,13 +4906,13 @@
       </c>
       <c r="M105">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D106">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="15"/>
@@ -4924,49 +4924,49 @@
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I106">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <f t="shared" ca="1" si="20"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K106">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L106">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M106">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D107">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="16"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="17"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="18"/>
@@ -4978,33 +4978,33 @@
       </c>
       <c r="J107">
         <f t="shared" ca="1" si="20"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K107">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L107">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M107">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D108">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="16"/>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="17"/>
@@ -5012,11 +5012,11 @@
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I108">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <f t="shared" ca="1" si="20"/>
@@ -5024,33 +5024,33 @@
       </c>
       <c r="K108">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L108">
         <f t="shared" ca="1" si="22"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M108">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D109">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="16"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="18"/>
@@ -5062,75 +5062,75 @@
       </c>
       <c r="J109">
         <f t="shared" ca="1" si="20"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K109">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L109">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M109">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D110">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="17"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I110">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <f t="shared" ca="1" si="20"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K110">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L110">
         <f t="shared" ca="1" si="22"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M110">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D111">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="16"/>
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="17"/>
@@ -5138,15 +5138,15 @@
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I111">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <f t="shared" ca="1" si="20"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K111">
         <f t="shared" ca="1" si="21"/>
@@ -5154,33 +5154,33 @@
       </c>
       <c r="L111">
         <f t="shared" ca="1" si="22"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M111">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D112">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="16"/>
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="17"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I112">
         <f t="shared" ca="1" si="19"/>
@@ -5188,25 +5188,25 @@
       </c>
       <c r="J112">
         <f t="shared" ca="1" si="20"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K112">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L112">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M112">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D113">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="15"/>
@@ -5226,11 +5226,11 @@
       </c>
       <c r="I113">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <f t="shared" ca="1" si="20"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K113">
         <f t="shared" ca="1" si="21"/>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="L113">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M113">
         <f t="shared" ca="1" si="13"/>
@@ -5248,7 +5248,7 @@
     <row r="114" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D114">
         <f t="shared" ca="1" si="14"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="15"/>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="17"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="18"/>
@@ -5272,49 +5272,49 @@
       </c>
       <c r="J114">
         <f t="shared" ca="1" si="20"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K114">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L114">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M114">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D115">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="16"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G115">
         <f t="shared" ca="1" si="17"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I115">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J115">
         <f t="shared" ca="1" si="20"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K115">
         <f t="shared" ca="1" si="21"/>
@@ -5326,17 +5326,17 @@
       </c>
       <c r="M115">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D116">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="16"/>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="G116">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="18"/>
@@ -5352,29 +5352,29 @@
       </c>
       <c r="I116">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J116">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K116">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L116">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M116">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D117">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="15"/>
@@ -5382,11 +5382,11 @@
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="16"/>
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G117">
         <f t="shared" ca="1" si="17"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="18"/>
@@ -5394,33 +5394,33 @@
       </c>
       <c r="I117">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J117">
         <f t="shared" ca="1" si="20"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K117">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L117">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M117">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D118">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="16"/>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="G118">
         <f t="shared" ca="1" si="17"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="18"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="J118">
         <f t="shared" ca="1" si="20"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K118">
         <f t="shared" ca="1" si="21"/>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="L118">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M118">
         <f t="shared" ca="1" si="13"/>
@@ -5458,23 +5458,23 @@
     <row r="119" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D119">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="16"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G119">
         <f t="shared" ca="1" si="17"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I119">
         <f t="shared" ca="1" si="19"/>
@@ -5482,41 +5482,41 @@
       </c>
       <c r="J119">
         <f t="shared" ca="1" si="20"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K119">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L119">
         <f t="shared" ca="1" si="22"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M119">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D120">
         <f t="shared" ca="1" si="14"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="16"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G120">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H120">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I120">
         <f t="shared" ca="1" si="19"/>
@@ -5524,33 +5524,33 @@
       </c>
       <c r="J120">
         <f t="shared" ca="1" si="20"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K120">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L120">
         <f t="shared" ca="1" si="22"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M120">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D121">
         <f t="shared" ca="1" si="14"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="16"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G121">
         <f t="shared" ca="1" si="17"/>
@@ -5558,45 +5558,45 @@
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I121">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J121">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K121">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L121">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M121">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D122">
         <f t="shared" ca="1" si="14"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G122">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="18"/>
@@ -5608,37 +5608,37 @@
       </c>
       <c r="J122">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K122">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L122">
         <f t="shared" ca="1" si="22"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M122">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D123">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="15"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="16"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G123">
         <f t="shared" ca="1" si="17"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H123">
         <f t="shared" ca="1" si="18"/>
@@ -5654,57 +5654,57 @@
       </c>
       <c r="K123">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L123">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M123">
         <f t="shared" ca="1" si="13"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D124">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="16"/>
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G124">
         <f t="shared" ca="1" si="17"/>
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H124">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I124">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <f t="shared" ca="1" si="20"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K124">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L124">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M124">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="4:13" x14ac:dyDescent="0.45">
@@ -5714,15 +5714,15 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="16"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G125">
         <f t="shared" ca="1" si="17"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H125">
         <f t="shared" ca="1" si="18"/>
@@ -5734,19 +5734,19 @@
       </c>
       <c r="J125">
         <f t="shared" ca="1" si="20"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K125">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L125">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M125">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="4:13" x14ac:dyDescent="0.45">
@@ -5756,19 +5756,19 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G126">
         <f t="shared" ca="1" si="17"/>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H126">
         <f t="shared" ca="1" si="18"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I126">
         <f t="shared" ca="1" si="19"/>
@@ -5776,37 +5776,37 @@
       </c>
       <c r="J126">
         <f t="shared" ca="1" si="20"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K126">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L126">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M126">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D127">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="16"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G127">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H127">
         <f t="shared" ca="1" si="18"/>
@@ -5818,37 +5818,37 @@
       </c>
       <c r="J127">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K127">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L127">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M127">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D128">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="16"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G128">
         <f t="shared" ca="1" si="17"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H128">
         <f t="shared" ca="1" si="18"/>
@@ -5860,33 +5860,33 @@
       </c>
       <c r="J128">
         <f t="shared" ca="1" si="20"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K128">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L128">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M128">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D129">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="15"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="16"/>
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G129">
         <f t="shared" ca="1" si="17"/>
@@ -5910,29 +5910,29 @@
       </c>
       <c r="L129">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M129">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D130">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="15"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G130">
         <f t="shared" ca="1" si="17"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H130">
         <f t="shared" ca="1" si="18"/>
@@ -5948,37 +5948,37 @@
       </c>
       <c r="K130">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L130">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M130">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D131">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E131">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F131">
         <f t="shared" ca="1" si="16"/>
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G131">
         <f t="shared" ca="1" si="17"/>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H131">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I131">
         <f t="shared" ca="1" si="19"/>
@@ -5986,33 +5986,33 @@
       </c>
       <c r="J131">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K131">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L131">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M131">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D132">
         <f t="shared" ca="1" si="14"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="16"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G132">
         <f t="shared" ca="1" si="17"/>
@@ -6024,19 +6024,19 @@
       </c>
       <c r="I132">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J132">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K132">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L132">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M132">
         <f t="shared" ca="1" si="13"/>
@@ -6046,11 +6046,11 @@
     <row r="133" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D133">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="16"/>
@@ -6058,31 +6058,31 @@
       </c>
       <c r="G133">
         <f t="shared" ca="1" si="17"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H133">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I133">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J133">
         <f t="shared" ca="1" si="20"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K133">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L133">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M133">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="4:13" x14ac:dyDescent="0.45">
@@ -6092,11 +6092,11 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="16"/>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G134">
         <f t="shared" ca="1" si="17"/>
@@ -6104,15 +6104,15 @@
       </c>
       <c r="H134">
         <f t="shared" ca="1" si="18"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I134">
         <f t="shared" ca="1" si="19"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J134">
         <f t="shared" ca="1" si="20"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K134">
         <f t="shared" ca="1" si="21"/>
@@ -6120,17 +6120,17 @@
       </c>
       <c r="L134">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M134">
         <f t="shared" ref="M134:M197" ca="1" si="23">RANDBETWEEN(65,70)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D135">
         <f t="shared" ref="D135:D198" ca="1" si="24">RANDBETWEEN(70,80)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E135">
         <f t="shared" ref="E135:E198" ca="1" si="25">RANDBETWEEN(65,70)</f>
@@ -6138,15 +6138,15 @@
       </c>
       <c r="F135">
         <f t="shared" ref="F135:F198" ca="1" si="26">RANDBETWEEN(110,120)</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G135">
         <f t="shared" ref="G135:G198" ca="1" si="27">RANDBETWEEN(105,110)</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H135">
         <f t="shared" ref="H135:H198" ca="1" si="28">RANDBETWEEN(45,47)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I135">
         <f t="shared" ref="I135:I198" ca="1" si="29">RANDBETWEEN(44,45)</f>
@@ -6154,25 +6154,25 @@
       </c>
       <c r="J135">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K135">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L135">
         <f t="shared" ca="1" si="22"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M135">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D136">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="25"/>
@@ -6180,15 +6180,15 @@
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="26"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G136">
         <f t="shared" ca="1" si="27"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H136">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I136">
         <f t="shared" ca="1" si="29"/>
@@ -6200,37 +6200,37 @@
       </c>
       <c r="K136">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L136">
         <f t="shared" ca="1" si="22"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M136">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D137">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="26"/>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G137">
         <f t="shared" ca="1" si="27"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H137">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I137">
         <f t="shared" ca="1" si="29"/>
@@ -6238,15 +6238,15 @@
       </c>
       <c r="J137">
         <f t="shared" ca="1" si="20"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K137">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L137">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M137">
         <f t="shared" ca="1" si="23"/>
@@ -6256,19 +6256,19 @@
     <row r="138" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D138">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="26"/>
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G138">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H138">
         <f t="shared" ca="1" si="28"/>
@@ -6276,11 +6276,11 @@
       </c>
       <c r="I138">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J138">
         <f t="shared" ca="1" si="20"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K138">
         <f t="shared" ca="1" si="21"/>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="M138">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="4:13" x14ac:dyDescent="0.45">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="25"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="26"/>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G139">
         <f t="shared" ca="1" si="27"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H139">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I139">
         <f t="shared" ca="1" si="29"/>
@@ -6322,29 +6322,29 @@
       </c>
       <c r="J139">
         <f t="shared" ca="1" si="20"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K139">
         <f t="shared" ca="1" si="21"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L139">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M139">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D140">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="26"/>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="G140">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H140">
         <f t="shared" ca="1" si="28"/>
@@ -6364,15 +6364,15 @@
       </c>
       <c r="J140">
         <f t="shared" ca="1" si="20"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K140">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L140">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M140">
         <f t="shared" ca="1" si="23"/>
@@ -6382,23 +6382,23 @@
     <row r="141" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D141">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="25"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="26"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G141">
         <f t="shared" ca="1" si="27"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H141">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I141">
         <f t="shared" ca="1" si="29"/>
@@ -6406,41 +6406,41 @@
       </c>
       <c r="J141">
         <f t="shared" ca="1" si="20"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K141">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L141">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M141">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D142">
         <f t="shared" ca="1" si="24"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="26"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G142">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H142">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I142">
         <f t="shared" ca="1" si="29"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="J142">
         <f t="shared" ca="1" si="20"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K142">
         <f t="shared" ca="1" si="21"/>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="L142">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M142">
         <f t="shared" ca="1" si="23"/>
@@ -6466,11 +6466,11 @@
     <row r="143" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D143">
         <f t="shared" ca="1" si="24"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="26"/>
@@ -6478,11 +6478,11 @@
       </c>
       <c r="G143">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H143">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I143">
         <f t="shared" ca="1" si="29"/>
@@ -6490,41 +6490,41 @@
       </c>
       <c r="J143">
         <f t="shared" ca="1" si="20"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K143">
         <f t="shared" ca="1" si="21"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L143">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M143">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D144">
         <f t="shared" ca="1" si="24"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="26"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G144">
         <f t="shared" ca="1" si="27"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H144">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I144">
         <f t="shared" ca="1" si="29"/>
@@ -6532,29 +6532,29 @@
       </c>
       <c r="J144">
         <f t="shared" ca="1" si="20"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K144">
         <f t="shared" ca="1" si="21"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L144">
         <f t="shared" ca="1" si="22"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M144">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D145">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="25"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="26"/>
@@ -6562,11 +6562,11 @@
       </c>
       <c r="G145">
         <f t="shared" ca="1" si="27"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H145">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I145">
         <f t="shared" ca="1" si="29"/>
@@ -6578,33 +6578,33 @@
       </c>
       <c r="K145">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L145">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M145">
         <f t="shared" ca="1" si="23"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D146">
         <f t="shared" ca="1" si="24"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="25"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="26"/>
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G146">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H146">
         <f t="shared" ca="1" si="28"/>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="J146">
         <f t="shared" ca="1" si="20"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K146">
         <f t="shared" ca="1" si="21"/>
@@ -6628,71 +6628,71 @@
       </c>
       <c r="M146">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D147">
         <f t="shared" ca="1" si="24"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="25"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="26"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G147">
         <f t="shared" ca="1" si="27"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H147">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I147">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J147">
         <f t="shared" ca="1" si="20"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K147">
         <f t="shared" ca="1" si="21"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L147">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M147">
         <f t="shared" ca="1" si="23"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D148">
         <f t="shared" ca="1" si="24"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="25"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="26"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G148">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H148">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I148">
         <f t="shared" ca="1" si="29"/>
@@ -6700,41 +6700,41 @@
       </c>
       <c r="J148">
         <f t="shared" ca="1" si="20"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K148">
         <f t="shared" ca="1" si="21"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L148">
         <f t="shared" ca="1" si="22"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M148">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D149">
         <f t="shared" ca="1" si="24"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="25"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="26"/>
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G149">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H149">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I149">
         <f t="shared" ca="1" si="29"/>
@@ -6742,37 +6742,37 @@
       </c>
       <c r="J149">
         <f t="shared" ca="1" si="20"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K149">
         <f t="shared" ca="1" si="21"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L149">
         <f t="shared" ca="1" si="22"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M149">
         <f t="shared" ca="1" si="23"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D150">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="25"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="26"/>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G150">
         <f t="shared" ca="1" si="27"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H150">
         <f t="shared" ca="1" si="28"/>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="J150">
         <f t="shared" ref="J150:J205" ca="1" si="30">RANDBETWEEN(70,80)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K150">
         <f t="shared" ref="K150:K205" ca="1" si="31">RANDBETWEEN(65,70)</f>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="L150">
         <f t="shared" ref="L150:L205" ca="1" si="32">RANDBETWEEN(70,80)</f>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M150">
         <f t="shared" ca="1" si="23"/>
@@ -6806,15 +6806,15 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="26"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G151">
         <f t="shared" ca="1" si="27"/>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H151">
         <f t="shared" ca="1" si="28"/>
@@ -6822,37 +6822,37 @@
       </c>
       <c r="I151">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K151">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L151">
         <f t="shared" ca="1" si="32"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M151">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D152">
         <f t="shared" ca="1" si="24"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="26"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G152">
         <f t="shared" ca="1" si="27"/>
@@ -6860,33 +6860,33 @@
       </c>
       <c r="H152">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I152">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K152">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L152">
         <f t="shared" ca="1" si="32"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M152">
         <f t="shared" ca="1" si="23"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D153">
         <f t="shared" ca="1" si="24"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="25"/>
@@ -6894,11 +6894,11 @@
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="26"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G153">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H153">
         <f t="shared" ca="1" si="28"/>
@@ -6906,45 +6906,45 @@
       </c>
       <c r="I153">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J153">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K153">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L153">
         <f t="shared" ca="1" si="32"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M153">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D154">
         <f t="shared" ca="1" si="24"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="26"/>
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G154">
         <f t="shared" ca="1" si="27"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H154">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I154">
         <f t="shared" ca="1" si="29"/>
@@ -6956,79 +6956,79 @@
       </c>
       <c r="K154">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L154">
         <f t="shared" ca="1" si="32"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M154">
         <f t="shared" ca="1" si="23"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D155">
         <f t="shared" ca="1" si="24"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="25"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="26"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G155">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H155">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I155">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J155">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K155">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L155">
         <f t="shared" ca="1" si="32"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M155">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="156" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D156">
         <f t="shared" ca="1" si="24"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="26"/>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G156">
         <f t="shared" ca="1" si="27"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H156">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I156">
         <f t="shared" ca="1" si="29"/>
@@ -7036,15 +7036,15 @@
       </c>
       <c r="J156">
         <f t="shared" ca="1" si="30"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K156">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L156">
         <f t="shared" ca="1" si="32"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M156">
         <f t="shared" ca="1" si="23"/>
@@ -7054,23 +7054,23 @@
     <row r="157" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D157">
         <f t="shared" ca="1" si="24"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="26"/>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G157">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H157">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I157">
         <f t="shared" ca="1" si="29"/>
@@ -7078,15 +7078,15 @@
       </c>
       <c r="J157">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K157">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L157">
         <f t="shared" ca="1" si="32"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M157">
         <f t="shared" ca="1" si="23"/>
@@ -7096,11 +7096,11 @@
     <row r="158" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D158">
         <f t="shared" ca="1" si="24"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="26"/>
@@ -7108,11 +7108,11 @@
       </c>
       <c r="G158">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H158">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I158">
         <f t="shared" ca="1" si="29"/>
@@ -7120,41 +7120,41 @@
       </c>
       <c r="J158">
         <f t="shared" ca="1" si="30"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K158">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L158">
         <f t="shared" ca="1" si="32"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M158">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="159" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D159">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="26"/>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G159">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H159">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I159">
         <f t="shared" ca="1" si="29"/>
@@ -7162,15 +7162,15 @@
       </c>
       <c r="J159">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K159">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L159">
         <f t="shared" ca="1" si="32"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M159">
         <f t="shared" ca="1" si="23"/>
@@ -7180,23 +7180,23 @@
     <row r="160" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D160">
         <f t="shared" ca="1" si="24"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="25"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="26"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G160">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H160">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I160">
         <f t="shared" ca="1" si="29"/>
@@ -7204,25 +7204,25 @@
       </c>
       <c r="J160">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K160">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L160">
         <f t="shared" ca="1" si="32"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M160">
         <f t="shared" ca="1" si="23"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D161">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="25"/>
@@ -7230,15 +7230,15 @@
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="26"/>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G161">
         <f t="shared" ca="1" si="27"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H161">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I161">
         <f t="shared" ca="1" si="29"/>
@@ -7254,41 +7254,41 @@
       </c>
       <c r="L161">
         <f t="shared" ca="1" si="32"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M161">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D162">
         <f t="shared" ca="1" si="24"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="25"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="26"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G162">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H162">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I162">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J162">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K162">
         <f t="shared" ca="1" si="31"/>
@@ -7296,25 +7296,25 @@
       </c>
       <c r="L162">
         <f t="shared" ca="1" si="32"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M162">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D163">
         <f t="shared" ca="1" si="24"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="25"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="26"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G163">
         <f t="shared" ca="1" si="27"/>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="H163">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I163">
         <f t="shared" ca="1" si="29"/>
@@ -7330,15 +7330,15 @@
       </c>
       <c r="J163">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K163">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L163">
         <f t="shared" ca="1" si="32"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M163">
         <f t="shared" ca="1" si="23"/>
@@ -7348,15 +7348,15 @@
     <row r="164" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D164">
         <f t="shared" ca="1" si="24"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="26"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G164">
         <f t="shared" ca="1" si="27"/>
@@ -7364,15 +7364,15 @@
       </c>
       <c r="H164">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I164">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K164">
         <f t="shared" ca="1" si="31"/>
@@ -7380,37 +7380,37 @@
       </c>
       <c r="L164">
         <f t="shared" ca="1" si="32"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M164">
         <f t="shared" ca="1" si="23"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D165">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="26"/>
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G165">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H165">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I165">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J165">
         <f t="shared" ca="1" si="30"/>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="K165">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L165">
         <f t="shared" ca="1" si="32"/>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="M165">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" spans="4:13" x14ac:dyDescent="0.45">
@@ -7436,61 +7436,61 @@
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="26"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G166">
         <f t="shared" ca="1" si="27"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H166">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I166">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J166">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K166">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L166">
         <f t="shared" ca="1" si="32"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M166">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="167" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D167">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="26"/>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G167">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H167">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I167">
         <f t="shared" ca="1" si="29"/>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="J167">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K167">
         <f t="shared" ca="1" si="31"/>
@@ -7506,25 +7506,25 @@
       </c>
       <c r="L167">
         <f t="shared" ca="1" si="32"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M167">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D168">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="26"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G168">
         <f t="shared" ca="1" si="27"/>
@@ -7532,23 +7532,23 @@
       </c>
       <c r="H168">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I168">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J168">
         <f t="shared" ca="1" si="30"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K168">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L168">
         <f t="shared" ca="1" si="32"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M168">
         <f t="shared" ca="1" si="23"/>
@@ -7558,7 +7558,7 @@
     <row r="169" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D169">
         <f t="shared" ca="1" si="24"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="25"/>
@@ -7566,11 +7566,11 @@
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="26"/>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G169">
         <f t="shared" ca="1" si="27"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H169">
         <f t="shared" ca="1" si="28"/>
@@ -7578,11 +7578,11 @@
       </c>
       <c r="I169">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J169">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K169">
         <f t="shared" ca="1" si="31"/>
@@ -7594,13 +7594,13 @@
       </c>
       <c r="M169">
         <f t="shared" ca="1" si="23"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D170">
         <f t="shared" ca="1" si="24"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="25"/>
@@ -7608,15 +7608,15 @@
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="26"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G170">
         <f t="shared" ca="1" si="27"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H170">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I170">
         <f t="shared" ca="1" si="29"/>
@@ -7624,41 +7624,41 @@
       </c>
       <c r="J170">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K170">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L170">
         <f t="shared" ca="1" si="32"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M170">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D171">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="25"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="26"/>
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G171">
         <f t="shared" ca="1" si="27"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H171">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I171">
         <f t="shared" ca="1" si="29"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="J171">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K171">
         <f t="shared" ca="1" si="31"/>
@@ -7678,163 +7678,163 @@
       </c>
       <c r="M171">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D172">
         <f t="shared" ca="1" si="24"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E172">
         <f t="shared" ca="1" si="25"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="26"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G172">
         <f t="shared" ca="1" si="27"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H172">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I172">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J172">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K172">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L172">
         <f t="shared" ca="1" si="32"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M172">
         <f t="shared" ca="1" si="23"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="173" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D173">
         <f t="shared" ca="1" si="24"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E173">
         <f t="shared" ca="1" si="25"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F173">
         <f t="shared" ca="1" si="26"/>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G173">
         <f t="shared" ca="1" si="27"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H173">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I173">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J173">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K173">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L173">
         <f t="shared" ca="1" si="32"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M173">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="174" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D174">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="25"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F174">
         <f t="shared" ca="1" si="26"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G174">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H174">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I174">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J174">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K174">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L174">
         <f t="shared" ca="1" si="32"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M174">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="175" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D175">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F175">
         <f t="shared" ca="1" si="26"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G175">
         <f t="shared" ca="1" si="27"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H175">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I175">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J175">
         <f t="shared" ca="1" si="30"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K175">
         <f t="shared" ca="1" si="31"/>
@@ -7842,37 +7842,37 @@
       </c>
       <c r="L175">
         <f t="shared" ca="1" si="32"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M175">
         <f t="shared" ca="1" si="23"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D176">
         <f t="shared" ca="1" si="24"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E176">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F176">
         <f t="shared" ca="1" si="26"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G176">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H176">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I176">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J176">
         <f t="shared" ca="1" si="30"/>
@@ -7880,41 +7880,41 @@
       </c>
       <c r="K176">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L176">
         <f t="shared" ca="1" si="32"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M176">
         <f t="shared" ca="1" si="23"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D177">
         <f t="shared" ca="1" si="24"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F177">
         <f t="shared" ca="1" si="26"/>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G177">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H177">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I177">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J177">
         <f t="shared" ca="1" si="30"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="K177">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L177">
         <f t="shared" ca="1" si="32"/>
@@ -7936,19 +7936,19 @@
     <row r="178" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D178">
         <f t="shared" ca="1" si="24"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E178">
         <f t="shared" ca="1" si="25"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F178">
         <f t="shared" ca="1" si="26"/>
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G178">
         <f t="shared" ca="1" si="27"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H178">
         <f t="shared" ca="1" si="28"/>
@@ -7960,11 +7960,11 @@
       </c>
       <c r="J178">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K178">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L178">
         <f t="shared" ca="1" si="32"/>
@@ -7972,37 +7972,37 @@
       </c>
       <c r="M178">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D179">
         <f t="shared" ca="1" si="24"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F179">
         <f t="shared" ca="1" si="26"/>
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G179">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H179">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I179">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J179">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K179">
         <f t="shared" ca="1" si="31"/>
@@ -8010,21 +8010,21 @@
       </c>
       <c r="L179">
         <f t="shared" ca="1" si="32"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M179">
         <f t="shared" ca="1" si="23"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D180">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="25"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F180">
         <f t="shared" ca="1" si="26"/>
@@ -8032,27 +8032,27 @@
       </c>
       <c r="G180">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H180">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I180">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J180">
         <f t="shared" ca="1" si="30"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K180">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L180">
         <f t="shared" ca="1" si="32"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M180">
         <f t="shared" ca="1" si="23"/>
@@ -8062,7 +8062,7 @@
     <row r="181" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D181">
         <f t="shared" ca="1" si="24"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E181">
         <f t="shared" ca="1" si="25"/>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="F181">
         <f t="shared" ca="1" si="26"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G181">
         <f t="shared" ca="1" si="27"/>
@@ -8086,41 +8086,41 @@
       </c>
       <c r="J181">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K181">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L181">
         <f t="shared" ca="1" si="32"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M181">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D182">
         <f t="shared" ca="1" si="24"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E182">
         <f t="shared" ca="1" si="25"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F182">
         <f t="shared" ca="1" si="26"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G182">
         <f t="shared" ca="1" si="27"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H182">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I182">
         <f t="shared" ca="1" si="29"/>
@@ -8128,15 +8128,15 @@
       </c>
       <c r="J182">
         <f t="shared" ca="1" si="30"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K182">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L182">
         <f t="shared" ca="1" si="32"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M182">
         <f t="shared" ca="1" si="23"/>
@@ -8146,19 +8146,19 @@
     <row r="183" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D183">
         <f t="shared" ca="1" si="24"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E183">
         <f t="shared" ca="1" si="25"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F183">
         <f t="shared" ca="1" si="26"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G183">
         <f t="shared" ca="1" si="27"/>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H183">
         <f t="shared" ca="1" si="28"/>
@@ -8170,15 +8170,15 @@
       </c>
       <c r="J183">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K183">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L183">
         <f t="shared" ca="1" si="32"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M183">
         <f t="shared" ca="1" si="23"/>
@@ -8188,23 +8188,23 @@
     <row r="184" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D184">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E184">
         <f t="shared" ca="1" si="25"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F184">
         <f t="shared" ca="1" si="26"/>
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G184">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H184">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I184">
         <f t="shared" ca="1" si="29"/>
@@ -8212,25 +8212,25 @@
       </c>
       <c r="J184">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K184">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L184">
         <f t="shared" ca="1" si="32"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M184">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D185">
         <f t="shared" ca="1" si="24"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E185">
         <f t="shared" ca="1" si="25"/>
@@ -8238,11 +8238,11 @@
       </c>
       <c r="F185">
         <f t="shared" ca="1" si="26"/>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G185">
         <f t="shared" ca="1" si="27"/>
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H185">
         <f t="shared" ca="1" si="28"/>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="J185">
         <f t="shared" ca="1" si="30"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K185">
         <f t="shared" ca="1" si="31"/>
@@ -8262,71 +8262,71 @@
       </c>
       <c r="L185">
         <f t="shared" ca="1" si="32"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M185">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D186">
         <f t="shared" ca="1" si="24"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E186">
         <f t="shared" ca="1" si="25"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F186">
         <f t="shared" ca="1" si="26"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G186">
         <f t="shared" ca="1" si="27"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H186">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I186">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J186">
         <f t="shared" ca="1" si="30"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K186">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L186">
         <f t="shared" ca="1" si="32"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M186">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D187">
         <f t="shared" ca="1" si="24"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E187">
         <f t="shared" ca="1" si="25"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F187">
         <f t="shared" ca="1" si="26"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G187">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H187">
         <f t="shared" ca="1" si="28"/>
@@ -8334,33 +8334,33 @@
       </c>
       <c r="I187">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J187">
         <f t="shared" ca="1" si="30"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K187">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L187">
         <f t="shared" ca="1" si="32"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M187">
         <f t="shared" ca="1" si="23"/>
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="188" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D188">
         <f t="shared" ca="1" si="24"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E188">
         <f t="shared" ca="1" si="25"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F188">
         <f t="shared" ca="1" si="26"/>
@@ -8368,11 +8368,11 @@
       </c>
       <c r="G188">
         <f t="shared" ca="1" si="27"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H188">
         <f t="shared" ca="1" si="28"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I188">
         <f t="shared" ca="1" si="29"/>
@@ -8380,15 +8380,15 @@
       </c>
       <c r="J188">
         <f t="shared" ca="1" si="30"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K188">
         <f t="shared" ca="1" si="31"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L188">
         <f t="shared" ca="1" si="32"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M188">
         <f t="shared" ca="1" si="23"/>
@@ -8398,57 +8398,57 @@
     <row r="189" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D189">
         <f t="shared" ca="1" si="24"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E189">
         <f t="shared" ca="1" si="25"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F189">
         <f t="shared" ca="1" si="26"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G189">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H189">
         <f t="shared" ca="1" si="28"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I189">
         <f t="shared" ca="1" si="29"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J189">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K189">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L189">
         <f t="shared" ca="1" si="32"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M189">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="190" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D190">
         <f t="shared" ca="1" si="24"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E190">
         <f t="shared" ca="1" si="25"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F190">
         <f t="shared" ca="1" si="26"/>
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G190">
         <f t="shared" ca="1" si="27"/>
@@ -8464,121 +8464,121 @@
       </c>
       <c r="J190">
         <f t="shared" ca="1" si="30"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K190">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L190">
         <f t="shared" ca="1" si="32"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M190">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D191">
         <f t="shared" ca="1" si="24"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E191">
         <f t="shared" ca="1" si="25"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F191">
         <f t="shared" ca="1" si="26"/>
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G191">
         <f t="shared" ca="1" si="27"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H191">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I191">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J191">
         <f t="shared" ca="1" si="30"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K191">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L191">
         <f t="shared" ca="1" si="32"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M191">
         <f t="shared" ca="1" si="23"/>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D192">
         <f t="shared" ca="1" si="24"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E192">
         <f t="shared" ca="1" si="25"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F192">
         <f t="shared" ca="1" si="26"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G192">
         <f t="shared" ca="1" si="27"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H192">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I192">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J192">
         <f t="shared" ca="1" si="30"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K192">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L192">
         <f t="shared" ca="1" si="32"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M192">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D193">
         <f t="shared" ca="1" si="24"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E193">
         <f t="shared" ca="1" si="25"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F193">
         <f t="shared" ca="1" si="26"/>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G193">
         <f t="shared" ca="1" si="27"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H193">
         <f t="shared" ca="1" si="28"/>
@@ -8586,45 +8586,45 @@
       </c>
       <c r="I193">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J193">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K193">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L193">
         <f t="shared" ca="1" si="32"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M193">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D194">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E194">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F194">
         <f t="shared" ca="1" si="26"/>
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G194">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H194">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I194">
         <f t="shared" ca="1" si="29"/>
@@ -8632,41 +8632,41 @@
       </c>
       <c r="J194">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K194">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L194">
         <f t="shared" ca="1" si="32"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M194">
         <f t="shared" ca="1" si="23"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="195" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D195">
         <f t="shared" ca="1" si="24"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E195">
         <f t="shared" ca="1" si="25"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F195">
         <f t="shared" ca="1" si="26"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G195">
         <f t="shared" ca="1" si="27"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H195">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I195">
         <f t="shared" ca="1" si="29"/>
@@ -8674,37 +8674,37 @@
       </c>
       <c r="J195">
         <f t="shared" ca="1" si="30"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K195">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L195">
         <f t="shared" ca="1" si="32"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M195">
         <f t="shared" ca="1" si="23"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="196" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D196">
         <f t="shared" ca="1" si="24"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E196">
         <f t="shared" ca="1" si="25"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F196">
         <f t="shared" ca="1" si="26"/>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G196">
         <f t="shared" ca="1" si="27"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H196">
         <f t="shared" ca="1" si="28"/>
@@ -8716,33 +8716,33 @@
       </c>
       <c r="J196">
         <f t="shared" ca="1" si="30"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K196">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L196">
         <f t="shared" ca="1" si="32"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M196">
         <f t="shared" ca="1" si="23"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D197">
         <f t="shared" ca="1" si="24"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E197">
         <f t="shared" ca="1" si="25"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F197">
         <f t="shared" ca="1" si="26"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G197">
         <f t="shared" ca="1" si="27"/>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="H197">
         <f t="shared" ca="1" si="28"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I197">
         <f t="shared" ca="1" si="29"/>
@@ -8758,19 +8758,19 @@
       </c>
       <c r="J197">
         <f t="shared" ca="1" si="30"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K197">
         <f t="shared" ca="1" si="31"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L197">
         <f t="shared" ca="1" si="32"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M197">
         <f t="shared" ca="1" si="23"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="4:13" x14ac:dyDescent="0.45">
@@ -8780,15 +8780,15 @@
       </c>
       <c r="E198">
         <f t="shared" ca="1" si="25"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F198">
         <f t="shared" ca="1" si="26"/>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G198">
         <f t="shared" ca="1" si="27"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H198">
         <f t="shared" ca="1" si="28"/>
@@ -8796,19 +8796,19 @@
       </c>
       <c r="I198">
         <f t="shared" ca="1" si="29"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J198">
         <f t="shared" ca="1" si="30"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K198">
         <f t="shared" ca="1" si="31"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L198">
         <f t="shared" ca="1" si="32"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M198">
         <f t="shared" ref="M198:M205" ca="1" si="33">RANDBETWEEN(65,70)</f>
@@ -8818,19 +8818,19 @@
     <row r="199" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D199">
         <f t="shared" ref="D199:D204" ca="1" si="34">RANDBETWEEN(70,80)</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E199">
         <f t="shared" ref="E199:E204" ca="1" si="35">RANDBETWEEN(65,70)</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F199">
         <f t="shared" ref="F199:F204" ca="1" si="36">RANDBETWEEN(110,120)</f>
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G199">
         <f t="shared" ref="G199:G204" ca="1" si="37">RANDBETWEEN(105,110)</f>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H199">
         <f t="shared" ref="H199:H204" ca="1" si="38">RANDBETWEEN(45,47)</f>
@@ -8842,25 +8842,25 @@
       </c>
       <c r="J199">
         <f t="shared" ca="1" si="30"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K199">
         <f t="shared" ca="1" si="31"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L199">
         <f t="shared" ca="1" si="32"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M199">
         <f t="shared" ca="1" si="33"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D200">
         <f t="shared" ca="1" si="34"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E200">
         <f t="shared" ca="1" si="35"/>
@@ -8868,15 +8868,15 @@
       </c>
       <c r="F200">
         <f t="shared" ca="1" si="36"/>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G200">
         <f t="shared" ca="1" si="37"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H200">
         <f t="shared" ca="1" si="38"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I200">
         <f t="shared" ca="1" si="39"/>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="J200">
         <f t="shared" ca="1" si="30"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K200">
         <f t="shared" ca="1" si="31"/>
@@ -8892,17 +8892,17 @@
       </c>
       <c r="L200">
         <f t="shared" ca="1" si="32"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M200">
         <f t="shared" ca="1" si="33"/>
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D201">
         <f t="shared" ca="1" si="34"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E201">
         <f t="shared" ca="1" si="35"/>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="G201">
         <f t="shared" ca="1" si="37"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H201">
         <f t="shared" ca="1" si="38"/>
@@ -8926,29 +8926,29 @@
       </c>
       <c r="J201">
         <f t="shared" ca="1" si="30"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K201">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L201">
         <f t="shared" ca="1" si="32"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M201">
         <f t="shared" ca="1" si="33"/>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D202">
         <f t="shared" ca="1" si="34"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E202">
         <f t="shared" ca="1" si="35"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F202">
         <f t="shared" ca="1" si="36"/>
@@ -8956,53 +8956,53 @@
       </c>
       <c r="G202">
         <f t="shared" ca="1" si="37"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H202">
         <f t="shared" ca="1" si="38"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I202">
         <f t="shared" ca="1" si="39"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J202">
         <f t="shared" ca="1" si="30"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K202">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L202">
         <f t="shared" ca="1" si="32"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M202">
         <f t="shared" ca="1" si="33"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D203">
         <f t="shared" ca="1" si="34"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E203">
         <f t="shared" ca="1" si="35"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F203">
         <f t="shared" ca="1" si="36"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G203">
         <f t="shared" ca="1" si="37"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H203">
         <f t="shared" ca="1" si="38"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I203">
         <f t="shared" ca="1" si="39"/>
@@ -9010,19 +9010,19 @@
       </c>
       <c r="J203">
         <f t="shared" ca="1" si="30"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K203">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L203">
         <f t="shared" ca="1" si="32"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M203">
         <f t="shared" ca="1" si="33"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="4:13" x14ac:dyDescent="0.45">
@@ -9032,15 +9032,15 @@
       </c>
       <c r="E204">
         <f t="shared" ca="1" si="35"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F204">
         <f t="shared" ca="1" si="36"/>
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G204">
         <f t="shared" ca="1" si="37"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H204">
         <f t="shared" ca="1" si="38"/>
@@ -9048,41 +9048,41 @@
       </c>
       <c r="I204">
         <f t="shared" ca="1" si="39"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J204">
         <f t="shared" ca="1" si="30"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K204">
         <f t="shared" ca="1" si="31"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L204">
         <f t="shared" ca="1" si="32"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M204">
         <f t="shared" ca="1" si="33"/>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D205">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E205">
         <f ca="1">RANDBETWEEN(65,70)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F205">
         <f ca="1">RANDBETWEEN(110,120)</f>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G205">
         <f ca="1">RANDBETWEEN(105,110)</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H205">
         <f ca="1">RANDBETWEEN(45,47)</f>
@@ -9090,23 +9090,23 @@
       </c>
       <c r="I205">
         <f ca="1">RANDBETWEEN(44,45)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J205">
         <f t="shared" ca="1" si="30"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K205">
         <f t="shared" ca="1" si="31"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L205">
         <f t="shared" ca="1" si="32"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M205">
         <f t="shared" ca="1" si="33"/>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -9118,7 +9118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F02BBE-E9BC-463A-A723-4C8E524F5CF9}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
